--- a/BI_Financeiro.xlsx
+++ b/BI_Financeiro.xlsx
@@ -10,7 +10,7 @@
     <sheet name="AnalíticoNC" sheetId="1" r:id="rId1"/>
     <sheet name="SintéticoNC" sheetId="2" r:id="rId2"/>
     <sheet name="ÍndiceCorreção" sheetId="3" r:id="rId3"/>
-    <sheet name="Proponentes" sheetId="4" r:id="rId4"/>
+    <sheet name="Proponente" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>

--- a/BI_Financeiro.xlsx
+++ b/BI_Financeiro.xlsx
@@ -10,14 +10,15 @@
     <sheet name="AnalíticoNC" sheetId="1" r:id="rId1"/>
     <sheet name="SintéticoNC" sheetId="2" r:id="rId2"/>
     <sheet name="ÍndiceCorreção" sheetId="3" r:id="rId3"/>
-    <sheet name="Proponente" sheetId="4" r:id="rId4"/>
+    <sheet name="Proponentes" sheetId="4" r:id="rId4"/>
+    <sheet name="ControleGeral" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8260" uniqueCount="1523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9390" uniqueCount="1607">
   <si>
     <t>proponente</t>
   </si>
@@ -4586,6 +4587,258 @@
   </si>
   <si>
     <t>DEP. JOSE LOURENÇO BOMFIM JUNIOR</t>
+  </si>
+  <si>
+    <t>processo</t>
+  </si>
+  <si>
+    <t>contrato</t>
+  </si>
+  <si>
+    <t>nota_de_empenho</t>
+  </si>
+  <si>
+    <t>valor_empenhado</t>
+  </si>
+  <si>
+    <t>valor_pago</t>
+  </si>
+  <si>
+    <t>saldo_do_empenho</t>
+  </si>
+  <si>
+    <t>consumo_%</t>
+  </si>
+  <si>
+    <t>janeiro</t>
+  </si>
+  <si>
+    <t>fevereiro</t>
+  </si>
+  <si>
+    <t>marco</t>
+  </si>
+  <si>
+    <t>abril</t>
+  </si>
+  <si>
+    <t>maio</t>
+  </si>
+  <si>
+    <t>junho</t>
+  </si>
+  <si>
+    <t>julho</t>
+  </si>
+  <si>
+    <t>agosto</t>
+  </si>
+  <si>
+    <t>setembro</t>
+  </si>
+  <si>
+    <t>outubro</t>
+  </si>
+  <si>
+    <t>novembro</t>
+  </si>
+  <si>
+    <t>dezembro</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>53115.006429/2021-12</t>
+  </si>
+  <si>
+    <t>53115.006430/2021-47</t>
+  </si>
+  <si>
+    <t>53115.006431/2021-91</t>
+  </si>
+  <si>
+    <t>53115.006432/2021-36</t>
+  </si>
+  <si>
+    <t>53115.006433/2021-81</t>
+  </si>
+  <si>
+    <t>53115.006434/2021-25</t>
+  </si>
+  <si>
+    <t>53115.021581/2021-25</t>
+  </si>
+  <si>
+    <t>53115.040805/2021-06</t>
+  </si>
+  <si>
+    <t>53115.006499/2021-71</t>
+  </si>
+  <si>
+    <t>01250.050185/2019-32</t>
+  </si>
+  <si>
+    <t>53115.006508/2021-23</t>
+  </si>
+  <si>
+    <t>53115.006538/2021-30</t>
+  </si>
+  <si>
+    <t>53115.006539/2021-84</t>
+  </si>
+  <si>
+    <t>53115.037097/2021-18</t>
+  </si>
+  <si>
+    <t>53115.006542/2021-06</t>
+  </si>
+  <si>
+    <t>53115.007124/2021-28</t>
+  </si>
+  <si>
+    <t>53115.007127/2021-61</t>
+  </si>
+  <si>
+    <t>53115.007128/2021-14</t>
+  </si>
+  <si>
+    <t>53115.007129/2021-51</t>
+  </si>
+  <si>
+    <t>53115.007135/2021-16</t>
+  </si>
+  <si>
+    <t>53115.007137/2021-05</t>
+  </si>
+  <si>
+    <t>53115.007138/2021-41</t>
+  </si>
+  <si>
+    <t>53115.007140/2021-11</t>
+  </si>
+  <si>
+    <t>53115.007143/2021-54</t>
+  </si>
+  <si>
+    <t>53115.007148/2021-87</t>
+  </si>
+  <si>
+    <t>53115.007150/2021-56</t>
+  </si>
+  <si>
+    <t>53115.023142/2021-57</t>
+  </si>
+  <si>
+    <t>53115.007159/2021-67</t>
+  </si>
+  <si>
+    <t>53115.007161/2021-36</t>
+  </si>
+  <si>
+    <t>53115.007162/2021-81</t>
+  </si>
+  <si>
+    <t>53115.007220/2021-76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01250.050436/2017-17 </t>
+  </si>
+  <si>
+    <t>53115.016194/2020-96</t>
+  </si>
+  <si>
+    <t>71000.038976/2019-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53900.014176/2014-75 </t>
+  </si>
+  <si>
+    <t>01250.024737/2020-91</t>
+  </si>
+  <si>
+    <t>53115.022459/2021-76</t>
+  </si>
+  <si>
+    <t>53115.007222/2021-65</t>
+  </si>
+  <si>
+    <t>53115.001389/2020-31</t>
+  </si>
+  <si>
+    <t>01250.013622/2020-71</t>
+  </si>
+  <si>
+    <t>53115.006506/2021-34</t>
+  </si>
+  <si>
+    <t>53115.007228/2021-32</t>
+  </si>
+  <si>
+    <t>53115.013564/2021-14</t>
+  </si>
+  <si>
+    <t>53115.007232/2021-09</t>
+  </si>
+  <si>
+    <t>NAN</t>
+  </si>
+  <si>
+    <t>2021NE000238</t>
+  </si>
+  <si>
+    <t>2021NE000239</t>
+  </si>
+  <si>
+    <t>2021NE000264</t>
+  </si>
+  <si>
+    <t>2021NE000235</t>
+  </si>
+  <si>
+    <t>2021NE000096</t>
+  </si>
+  <si>
+    <t>2021NE000099</t>
+  </si>
+  <si>
+    <t>2021NE000124</t>
+  </si>
+  <si>
+    <t>2021NE000259</t>
+  </si>
+  <si>
+    <t>2021NE000258</t>
+  </si>
+  <si>
+    <t>2021NE000091</t>
+  </si>
+  <si>
+    <t>2021NE000093</t>
+  </si>
+  <si>
+    <t>2020NE800055</t>
+  </si>
+  <si>
+    <t>2021NE000095</t>
+  </si>
+  <si>
+    <t>2021NE000102</t>
+  </si>
+  <si>
+    <t>Em. Comissão</t>
+  </si>
+  <si>
+    <t>Em. Individual</t>
+  </si>
+  <si>
+    <t>TED</t>
+  </si>
+  <si>
+    <t>MCom</t>
+  </si>
+  <si>
+    <t>Nota de Crédito</t>
   </si>
 </sst>
 </file>
@@ -50946,4 +51199,5829 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W173"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1528</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>1536</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>1538</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>1540</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>1541</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>1542</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2">
+        <v>1917000</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1917000</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="U2" t="s">
+        <v>1602</v>
+      </c>
+      <c r="V2" t="s">
+        <v>129</v>
+      </c>
+      <c r="W2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3">
+        <v>524400</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>524400</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="U3" t="s">
+        <v>1602</v>
+      </c>
+      <c r="V3" t="s">
+        <v>129</v>
+      </c>
+      <c r="W3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E4">
+        <v>608000</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>608000</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="U4" t="s">
+        <v>1602</v>
+      </c>
+      <c r="V4" t="s">
+        <v>129</v>
+      </c>
+      <c r="W4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E5">
+        <v>175000</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>175000</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="U5" t="s">
+        <v>1602</v>
+      </c>
+      <c r="V5" t="s">
+        <v>129</v>
+      </c>
+      <c r="W5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6">
+        <v>5225812</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>5225812</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="U6" t="s">
+        <v>1602</v>
+      </c>
+      <c r="V6" t="s">
+        <v>129</v>
+      </c>
+      <c r="W6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E7">
+        <v>750000</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>750000</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="U7" t="s">
+        <v>1602</v>
+      </c>
+      <c r="V7" t="s">
+        <v>129</v>
+      </c>
+      <c r="W7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E8">
+        <v>13616356</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>13616356</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="U8" t="s">
+        <v>1602</v>
+      </c>
+      <c r="V8" t="s">
+        <v>130</v>
+      </c>
+      <c r="W8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" t="s">
+        <v>243</v>
+      </c>
+      <c r="E9">
+        <v>5200000</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>5200000</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="U9" t="s">
+        <v>1602</v>
+      </c>
+      <c r="V9" t="s">
+        <v>130</v>
+      </c>
+      <c r="W9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E10">
+        <v>1544762</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1544762</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="U10" t="s">
+        <v>1602</v>
+      </c>
+      <c r="V10" t="s">
+        <v>131</v>
+      </c>
+      <c r="W10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" t="s">
+        <v>244</v>
+      </c>
+      <c r="E11">
+        <v>695280</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>695280</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="U11" t="s">
+        <v>1602</v>
+      </c>
+      <c r="V11" t="s">
+        <v>131</v>
+      </c>
+      <c r="W11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E12">
+        <v>1500000</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1500000</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="U12" t="s">
+        <v>1602</v>
+      </c>
+      <c r="V12" t="s">
+        <v>132</v>
+      </c>
+      <c r="W12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E13">
+        <v>2245000</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>2245000</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="U13" t="s">
+        <v>1602</v>
+      </c>
+      <c r="V13" t="s">
+        <v>132</v>
+      </c>
+      <c r="W13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E14">
+        <v>2752000</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>2752000</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="U14" t="s">
+        <v>1602</v>
+      </c>
+      <c r="V14" t="s">
+        <v>132</v>
+      </c>
+      <c r="W14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" t="s">
+        <v>245</v>
+      </c>
+      <c r="E15">
+        <v>783000</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>783000</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="U15" t="s">
+        <v>1602</v>
+      </c>
+      <c r="V15" t="s">
+        <v>132</v>
+      </c>
+      <c r="W15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" t="s">
+        <v>246</v>
+      </c>
+      <c r="E16">
+        <v>840153.99</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>840153.99</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="U16" t="s">
+        <v>1602</v>
+      </c>
+      <c r="V16" t="s">
+        <v>132</v>
+      </c>
+      <c r="W16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" t="s">
+        <v>201</v>
+      </c>
+      <c r="E17">
+        <v>750000</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>750000</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="U17" t="s">
+        <v>1602</v>
+      </c>
+      <c r="V17" t="s">
+        <v>133</v>
+      </c>
+      <c r="W17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" t="s">
+        <v>202</v>
+      </c>
+      <c r="E18">
+        <v>490000</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>490000</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="U18" t="s">
+        <v>1602</v>
+      </c>
+      <c r="V18" t="s">
+        <v>134</v>
+      </c>
+      <c r="W18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" t="s">
+        <v>203</v>
+      </c>
+      <c r="E19">
+        <v>831400</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>831400</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="U19" t="s">
+        <v>1602</v>
+      </c>
+      <c r="V19" t="s">
+        <v>134</v>
+      </c>
+      <c r="W19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" t="s">
+        <v>247</v>
+      </c>
+      <c r="E20">
+        <v>184000</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>184000</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="U20" t="s">
+        <v>1602</v>
+      </c>
+      <c r="V20" t="s">
+        <v>134</v>
+      </c>
+      <c r="W20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" t="s">
+        <v>248</v>
+      </c>
+      <c r="E21">
+        <v>312420</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>312420</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="U21" t="s">
+        <v>1602</v>
+      </c>
+      <c r="V21" t="s">
+        <v>134</v>
+      </c>
+      <c r="W21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" t="s">
+        <v>204</v>
+      </c>
+      <c r="E22">
+        <v>207000</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>207000</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="U22" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V22" t="s">
+        <v>135</v>
+      </c>
+      <c r="W22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" t="s">
+        <v>268</v>
+      </c>
+      <c r="E23">
+        <v>93000</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>93000</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="U23" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V23" t="s">
+        <v>135</v>
+      </c>
+      <c r="W23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B24" t="s">
+        <v>948</v>
+      </c>
+      <c r="C24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1588</v>
+      </c>
+      <c r="E24">
+        <v>241500</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>241500</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="U24" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V24" t="s">
+        <v>401</v>
+      </c>
+      <c r="W24" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B25" t="s">
+        <v>948</v>
+      </c>
+      <c r="C25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1589</v>
+      </c>
+      <c r="E25">
+        <v>108500</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>108500</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="U25" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V25" t="s">
+        <v>401</v>
+      </c>
+      <c r="W25" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" t="s">
+        <v>205</v>
+      </c>
+      <c r="E26">
+        <v>215340</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>215340</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="U26" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V26" t="s">
+        <v>136</v>
+      </c>
+      <c r="W26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B27" t="s">
+        <v>291</v>
+      </c>
+      <c r="C27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E27">
+        <v>2238358.5</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>2238358.5</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="U27" t="s">
+        <v>1604</v>
+      </c>
+      <c r="V27" t="s">
+        <v>291</v>
+      </c>
+      <c r="W27" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" t="s">
+        <v>206</v>
+      </c>
+      <c r="E28">
+        <v>138500</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>138500</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="U28" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V28" t="s">
+        <v>137</v>
+      </c>
+      <c r="W28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" t="s">
+        <v>249</v>
+      </c>
+      <c r="E29">
+        <v>61500</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>61500</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="U29" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V29" t="s">
+        <v>137</v>
+      </c>
+      <c r="W29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" t="s">
+        <v>207</v>
+      </c>
+      <c r="E30">
+        <v>207000</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>207000</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="U30" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V30" t="s">
+        <v>138</v>
+      </c>
+      <c r="W30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" t="s">
+        <v>250</v>
+      </c>
+      <c r="E31">
+        <v>93000</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>93000</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="U31" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V31" t="s">
+        <v>138</v>
+      </c>
+      <c r="W31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" t="s">
+        <v>208</v>
+      </c>
+      <c r="E32">
+        <v>208000</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>208000</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="U32" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V32" t="s">
+        <v>139</v>
+      </c>
+      <c r="W32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" t="s">
+        <v>251</v>
+      </c>
+      <c r="E33">
+        <v>92000</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>92000</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="U33" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V33" t="s">
+        <v>139</v>
+      </c>
+      <c r="W33" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" t="s">
+        <v>209</v>
+      </c>
+      <c r="E34">
+        <v>400000</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>400000</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="U34" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V34" t="s">
+        <v>140</v>
+      </c>
+      <c r="W34" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E35">
+        <v>360000</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>360000</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="U35" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V35" t="s">
+        <v>140</v>
+      </c>
+      <c r="W35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" t="s">
+        <v>210</v>
+      </c>
+      <c r="E36">
+        <v>339993</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>339993</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="U36" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V36" t="s">
+        <v>141</v>
+      </c>
+      <c r="W36" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" t="s">
+        <v>211</v>
+      </c>
+      <c r="E37">
+        <v>108120</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>108120</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="U37" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V37" t="s">
+        <v>142</v>
+      </c>
+      <c r="W37" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" t="s">
+        <v>252</v>
+      </c>
+      <c r="E38">
+        <v>41880</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>41880</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="U38" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V38" t="s">
+        <v>142</v>
+      </c>
+      <c r="W38" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" t="s">
+        <v>212</v>
+      </c>
+      <c r="E39">
+        <v>1131456</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>1131456</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="U39" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V39" t="s">
+        <v>143</v>
+      </c>
+      <c r="W39" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" t="s">
+        <v>253</v>
+      </c>
+      <c r="E40">
+        <v>368544</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>368544</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="U40" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V40" t="s">
+        <v>143</v>
+      </c>
+      <c r="W40" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" t="s">
+        <v>213</v>
+      </c>
+      <c r="E41">
+        <v>66000</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>66000</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="U41" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V41" t="s">
+        <v>144</v>
+      </c>
+      <c r="W41" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" t="s">
+        <v>214</v>
+      </c>
+      <c r="E42">
+        <v>561190</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>561190</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="U42" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V42" t="s">
+        <v>144</v>
+      </c>
+      <c r="W42" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="A43" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" t="s">
+        <v>215</v>
+      </c>
+      <c r="E43">
+        <v>207000</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>207000</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="U43" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V43" t="s">
+        <v>145</v>
+      </c>
+      <c r="W43" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44" t="s">
+        <v>254</v>
+      </c>
+      <c r="E44">
+        <v>93000</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>93000</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="U44" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V44" t="s">
+        <v>145</v>
+      </c>
+      <c r="W44" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="A45" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" t="s">
+        <v>127</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E45">
+        <v>590000</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>590000</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="U45" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V45" t="s">
+        <v>146</v>
+      </c>
+      <c r="W45" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" t="s">
+        <v>127</v>
+      </c>
+      <c r="D46" t="s">
+        <v>216</v>
+      </c>
+      <c r="E46">
+        <v>439986</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>439986</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="U46" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V46" t="s">
+        <v>146</v>
+      </c>
+      <c r="W46" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="A47" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" t="s">
+        <v>217</v>
+      </c>
+      <c r="E47">
+        <v>440000</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>440000</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="U47" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V47" t="s">
+        <v>147</v>
+      </c>
+      <c r="W47" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="A48" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B48" t="s">
+        <v>933</v>
+      </c>
+      <c r="C48" t="s">
+        <v>127</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E48">
+        <v>390000</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>390000</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="U48" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V48" t="s">
+        <v>629</v>
+      </c>
+      <c r="W48" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
+      <c r="A49" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B49" t="s">
+        <v>933</v>
+      </c>
+      <c r="C49" t="s">
+        <v>127</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1594</v>
+      </c>
+      <c r="E49">
+        <v>269340</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>269340</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="U49" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V49" t="s">
+        <v>629</v>
+      </c>
+      <c r="W49" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
+      <c r="A50" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" t="s">
+        <v>127</v>
+      </c>
+      <c r="D50" t="s">
+        <v>218</v>
+      </c>
+      <c r="E50">
+        <v>207000</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>207000</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="U50" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V50" t="s">
+        <v>148</v>
+      </c>
+      <c r="W50" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
+      <c r="A51" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B51" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51" t="s">
+        <v>255</v>
+      </c>
+      <c r="E51">
+        <v>93000</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>93000</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="U51" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V51" t="s">
+        <v>148</v>
+      </c>
+      <c r="W51" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
+      <c r="A52" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B52" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52" t="s">
+        <v>219</v>
+      </c>
+      <c r="E52">
+        <v>102000</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>102000</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="U52" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V52" t="s">
+        <v>149</v>
+      </c>
+      <c r="W52" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
+      <c r="A53" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D53" t="s">
+        <v>256</v>
+      </c>
+      <c r="E53">
+        <v>48000</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>48000</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="U53" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V53" t="s">
+        <v>149</v>
+      </c>
+      <c r="W53" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
+      <c r="A54" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B54" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" t="s">
+        <v>127</v>
+      </c>
+      <c r="D54" t="s">
+        <v>220</v>
+      </c>
+      <c r="E54">
+        <v>345000</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>345000</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="U54" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V54" t="s">
+        <v>150</v>
+      </c>
+      <c r="W54" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
+      <c r="A55" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B55" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D55" t="s">
+        <v>257</v>
+      </c>
+      <c r="E55">
+        <v>155000</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>155000</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="U55" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V55" t="s">
+        <v>150</v>
+      </c>
+      <c r="W55" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
+      <c r="A56" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" t="s">
+        <v>127</v>
+      </c>
+      <c r="D56" t="s">
+        <v>221</v>
+      </c>
+      <c r="E56">
+        <v>430000</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>430000</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="U56" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V56" t="s">
+        <v>151</v>
+      </c>
+      <c r="W56" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
+      <c r="A57" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B57" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" t="s">
+        <v>128</v>
+      </c>
+      <c r="D57" t="s">
+        <v>258</v>
+      </c>
+      <c r="E57">
+        <v>170000</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>170000</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="U57" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V57" t="s">
+        <v>151</v>
+      </c>
+      <c r="W57" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
+      <c r="A58" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B58" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" t="s">
+        <v>127</v>
+      </c>
+      <c r="D58" t="s">
+        <v>222</v>
+      </c>
+      <c r="E58">
+        <v>72000</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>72000</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="U58" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V58" t="s">
+        <v>152</v>
+      </c>
+      <c r="W58" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
+      <c r="A59" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" t="s">
+        <v>128</v>
+      </c>
+      <c r="D59" t="s">
+        <v>269</v>
+      </c>
+      <c r="E59">
+        <v>28000</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>28000</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="U59" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V59" t="s">
+        <v>152</v>
+      </c>
+      <c r="W59" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
+      <c r="A60" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B60" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60" t="s">
+        <v>127</v>
+      </c>
+      <c r="D60" t="s">
+        <v>223</v>
+      </c>
+      <c r="E60">
+        <v>207000</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>207000</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="U60" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V60" t="s">
+        <v>153</v>
+      </c>
+      <c r="W60" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
+      <c r="A61" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B61" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" t="s">
+        <v>128</v>
+      </c>
+      <c r="D61" t="s">
+        <v>259</v>
+      </c>
+      <c r="E61">
+        <v>93000</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>93000</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="U61" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V61" t="s">
+        <v>153</v>
+      </c>
+      <c r="W61" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
+      <c r="A62" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B62" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" t="s">
+        <v>127</v>
+      </c>
+      <c r="D62" t="s">
+        <v>224</v>
+      </c>
+      <c r="E62">
+        <v>207000</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>207000</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="U62" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V62" t="s">
+        <v>154</v>
+      </c>
+      <c r="W62" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
+      <c r="A63" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B63" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" t="s">
+        <v>128</v>
+      </c>
+      <c r="D63" t="s">
+        <v>260</v>
+      </c>
+      <c r="E63">
+        <v>93000</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>93000</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="U63" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V63" t="s">
+        <v>154</v>
+      </c>
+      <c r="W63" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
+      <c r="A64" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B64" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" t="s">
+        <v>127</v>
+      </c>
+      <c r="D64" t="s">
+        <v>225</v>
+      </c>
+      <c r="E64">
+        <v>430000</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>430000</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="U64" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V64" t="s">
+        <v>155</v>
+      </c>
+      <c r="W64" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
+      <c r="A65" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B65" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" t="s">
+        <v>128</v>
+      </c>
+      <c r="D65" t="s">
+        <v>261</v>
+      </c>
+      <c r="E65">
+        <v>170000</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>170000</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="U65" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V65" t="s">
+        <v>155</v>
+      </c>
+      <c r="W65" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
+      <c r="A66" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B66" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66" t="s">
+        <v>127</v>
+      </c>
+      <c r="D66" t="s">
+        <v>226</v>
+      </c>
+      <c r="E66">
+        <v>207000</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>207000</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="U66" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V66" t="s">
+        <v>156</v>
+      </c>
+      <c r="W66" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
+      <c r="A67" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B67" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" t="s">
+        <v>128</v>
+      </c>
+      <c r="D67" t="s">
+        <v>262</v>
+      </c>
+      <c r="E67">
+        <v>93000</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>93000</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="U67" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V67" t="s">
+        <v>156</v>
+      </c>
+      <c r="W67" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
+      <c r="A68" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B68" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" t="s">
+        <v>127</v>
+      </c>
+      <c r="D68" t="s">
+        <v>227</v>
+      </c>
+      <c r="E68">
+        <v>34652118</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>34652118</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="U68" t="s">
+        <v>1605</v>
+      </c>
+      <c r="V68" t="s">
+        <v>39</v>
+      </c>
+      <c r="W68" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
+      <c r="A69" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B69" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69" t="s">
+        <v>127</v>
+      </c>
+      <c r="D69" t="s">
+        <v>228</v>
+      </c>
+      <c r="E69">
+        <v>3688000</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>3688000</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="U69" t="s">
+        <v>1605</v>
+      </c>
+      <c r="V69" t="s">
+        <v>39</v>
+      </c>
+      <c r="W69" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
+      <c r="A70" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C70" t="s">
+        <v>127</v>
+      </c>
+      <c r="D70" t="s">
+        <v>229</v>
+      </c>
+      <c r="E70">
+        <v>10000000</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>10000000</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="U70" t="s">
+        <v>1605</v>
+      </c>
+      <c r="V70" t="s">
+        <v>39</v>
+      </c>
+      <c r="W70" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
+      <c r="A71" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B71" t="s">
+        <v>49</v>
+      </c>
+      <c r="C71" t="s">
+        <v>128</v>
+      </c>
+      <c r="D71" t="s">
+        <v>267</v>
+      </c>
+      <c r="E71">
+        <v>500000</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>500000</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="U71" t="s">
+        <v>1605</v>
+      </c>
+      <c r="V71" t="s">
+        <v>39</v>
+      </c>
+      <c r="W71" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
+      <c r="A72" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B72" t="s">
+        <v>922</v>
+      </c>
+      <c r="C72" t="s">
+        <v>127</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1595</v>
+      </c>
+      <c r="E72">
+        <v>324000</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>324000</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="U72" t="s">
+        <v>1605</v>
+      </c>
+      <c r="V72" t="s">
+        <v>39</v>
+      </c>
+      <c r="W72" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
+      <c r="A73" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B73" t="s">
+        <v>922</v>
+      </c>
+      <c r="C73" t="s">
+        <v>128</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E73">
+        <v>176000</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>176000</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="U73" t="s">
+        <v>1605</v>
+      </c>
+      <c r="V73" t="s">
+        <v>39</v>
+      </c>
+      <c r="W73" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
+      <c r="A74" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B74" t="s">
+        <v>284</v>
+      </c>
+      <c r="C74" t="s">
+        <v>127</v>
+      </c>
+      <c r="E74">
+        <v>600000</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>600000</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="U74" t="s">
+        <v>1604</v>
+      </c>
+      <c r="V74" t="s">
+        <v>284</v>
+      </c>
+      <c r="W74" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
+      <c r="A75" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B75" t="s">
+        <v>40</v>
+      </c>
+      <c r="C75" t="s">
+        <v>127</v>
+      </c>
+      <c r="D75" t="s">
+        <v>230</v>
+      </c>
+      <c r="E75">
+        <v>56319000</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>56319000</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="U75" t="s">
+        <v>1604</v>
+      </c>
+      <c r="V75" t="s">
+        <v>40</v>
+      </c>
+      <c r="W75" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
+      <c r="A76" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B76" t="s">
+        <v>40</v>
+      </c>
+      <c r="C76" t="s">
+        <v>127</v>
+      </c>
+      <c r="D76" t="s">
+        <v>231</v>
+      </c>
+      <c r="E76">
+        <v>3681000</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>3681000</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="U76" t="s">
+        <v>1604</v>
+      </c>
+      <c r="V76" t="s">
+        <v>40</v>
+      </c>
+      <c r="W76" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
+      <c r="A77" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B77" t="s">
+        <v>41</v>
+      </c>
+      <c r="C77" t="s">
+        <v>127</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1597</v>
+      </c>
+      <c r="E77">
+        <v>2970000</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>2970000</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="U77" t="s">
+        <v>1604</v>
+      </c>
+      <c r="V77" t="s">
+        <v>41</v>
+      </c>
+      <c r="W77" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
+      <c r="A78" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B78" t="s">
+        <v>41</v>
+      </c>
+      <c r="C78" t="s">
+        <v>127</v>
+      </c>
+      <c r="D78" t="s">
+        <v>232</v>
+      </c>
+      <c r="E78">
+        <v>1680000</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>1680000</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="U78" t="s">
+        <v>1604</v>
+      </c>
+      <c r="V78" t="s">
+        <v>41</v>
+      </c>
+      <c r="W78" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23">
+      <c r="A79" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B79" t="s">
+        <v>42</v>
+      </c>
+      <c r="C79" t="s">
+        <v>127</v>
+      </c>
+      <c r="D79" t="s">
+        <v>233</v>
+      </c>
+      <c r="E79">
+        <v>107800</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>107800</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="U79" t="s">
+        <v>1604</v>
+      </c>
+      <c r="V79" t="s">
+        <v>42</v>
+      </c>
+      <c r="W79" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
+      <c r="A80" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B80" t="s">
+        <v>43</v>
+      </c>
+      <c r="C80" t="s">
+        <v>127</v>
+      </c>
+      <c r="D80" t="s">
+        <v>234</v>
+      </c>
+      <c r="E80">
+        <v>414000</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>414000</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="U80" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V80" t="s">
+        <v>157</v>
+      </c>
+      <c r="W80" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
+      <c r="A81" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B81" t="s">
+        <v>43</v>
+      </c>
+      <c r="C81" t="s">
+        <v>128</v>
+      </c>
+      <c r="D81" t="s">
+        <v>263</v>
+      </c>
+      <c r="E81">
+        <v>192996</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>192996</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="U81" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V81" t="s">
+        <v>157</v>
+      </c>
+      <c r="W81" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23">
+      <c r="A82" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B82" t="s">
+        <v>939</v>
+      </c>
+      <c r="C82" t="s">
+        <v>127</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1598</v>
+      </c>
+      <c r="E82">
+        <v>25200</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>25200</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="U82" t="s">
+        <v>1604</v>
+      </c>
+      <c r="V82" t="s">
+        <v>289</v>
+      </c>
+      <c r="W82" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23">
+      <c r="B83" t="s">
+        <v>939</v>
+      </c>
+      <c r="C83" t="s">
+        <v>127</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E83">
+        <v>8400</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>8400</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="U83" t="s">
+        <v>1604</v>
+      </c>
+      <c r="V83" t="s">
+        <v>289</v>
+      </c>
+      <c r="W83" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23">
+      <c r="A84" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B84" t="s">
+        <v>44</v>
+      </c>
+      <c r="C84" t="s">
+        <v>127</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1600</v>
+      </c>
+      <c r="E84">
+        <v>92800</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>92800</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="U84" t="s">
+        <v>1604</v>
+      </c>
+      <c r="V84" t="s">
+        <v>158</v>
+      </c>
+      <c r="W84" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23">
+      <c r="A85" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B85" t="s">
+        <v>44</v>
+      </c>
+      <c r="C85" t="s">
+        <v>127</v>
+      </c>
+      <c r="D85" t="s">
+        <v>235</v>
+      </c>
+      <c r="E85">
+        <v>46400</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>46400</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="U85" t="s">
+        <v>1604</v>
+      </c>
+      <c r="V85" t="s">
+        <v>158</v>
+      </c>
+      <c r="W85" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23">
+      <c r="A86" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B86" t="s">
+        <v>45</v>
+      </c>
+      <c r="C86" t="s">
+        <v>127</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E86">
+        <v>350000</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>350000</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="U86" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V86" t="s">
+        <v>159</v>
+      </c>
+      <c r="W86" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23">
+      <c r="A87" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B87" t="s">
+        <v>45</v>
+      </c>
+      <c r="C87" t="s">
+        <v>127</v>
+      </c>
+      <c r="D87" t="s">
+        <v>236</v>
+      </c>
+      <c r="E87">
+        <v>700000</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>700000</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="U87" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V87" t="s">
+        <v>159</v>
+      </c>
+      <c r="W87" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23">
+      <c r="A88" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B88" t="s">
+        <v>46</v>
+      </c>
+      <c r="C88" t="s">
+        <v>127</v>
+      </c>
+      <c r="D88" t="s">
+        <v>237</v>
+      </c>
+      <c r="E88">
+        <v>284986</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>284986</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="U88" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V88" t="s">
+        <v>46</v>
+      </c>
+      <c r="W88" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23">
+      <c r="A89" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B89" t="s">
+        <v>46</v>
+      </c>
+      <c r="C89" t="s">
+        <v>128</v>
+      </c>
+      <c r="D89" t="s">
+        <v>264</v>
+      </c>
+      <c r="E89">
+        <v>132614</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>132614</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="U89" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V89" t="s">
+        <v>46</v>
+      </c>
+      <c r="W89" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23">
+      <c r="A90" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B90" t="s">
+        <v>47</v>
+      </c>
+      <c r="C90" t="s">
+        <v>127</v>
+      </c>
+      <c r="D90" t="s">
+        <v>238</v>
+      </c>
+      <c r="E90">
+        <v>345000</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>345000</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="U90" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V90" t="s">
+        <v>47</v>
+      </c>
+      <c r="W90" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23">
+      <c r="A91" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B91" t="s">
+        <v>47</v>
+      </c>
+      <c r="C91" t="s">
+        <v>128</v>
+      </c>
+      <c r="D91" t="s">
+        <v>266</v>
+      </c>
+      <c r="E91">
+        <v>155000</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>155000</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="U91" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V91" t="s">
+        <v>47</v>
+      </c>
+      <c r="W91" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23">
+      <c r="A92" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B92" t="s">
+        <v>48</v>
+      </c>
+      <c r="C92" t="s">
+        <v>127</v>
+      </c>
+      <c r="D92" t="s">
+        <v>239</v>
+      </c>
+      <c r="E92">
+        <v>309000</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>309000</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="U92" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V92" t="s">
+        <v>160</v>
+      </c>
+      <c r="W92" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23">
+      <c r="A93" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B93" t="s">
+        <v>48</v>
+      </c>
+      <c r="C93" t="s">
+        <v>128</v>
+      </c>
+      <c r="D93" t="s">
+        <v>265</v>
+      </c>
+      <c r="E93">
+        <v>141000</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>141000</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="U93" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V93" t="s">
+        <v>160</v>
+      </c>
+      <c r="W93" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23">
+      <c r="B94" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" t="s">
+        <v>127</v>
+      </c>
+      <c r="D94" t="s">
+        <v>50</v>
+      </c>
+      <c r="E94">
+        <v>1801472.7</v>
+      </c>
+      <c r="F94">
+        <v>1935012.754443571</v>
+      </c>
+      <c r="G94">
+        <v>3250.12754443544</v>
+      </c>
+      <c r="H94">
+        <v>107.2193870942727</v>
+      </c>
+      <c r="U94" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V94" t="s">
+        <v>129</v>
+      </c>
+      <c r="W94" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23">
+      <c r="B95" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" t="s">
+        <v>127</v>
+      </c>
+      <c r="D95" t="s">
+        <v>51</v>
+      </c>
+      <c r="E95">
+        <v>524400</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>591340.4420987531</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="U95" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V95" t="s">
+        <v>129</v>
+      </c>
+      <c r="W95" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23">
+      <c r="B96" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" t="s">
+        <v>127</v>
+      </c>
+      <c r="D96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E96">
+        <v>5225812</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>5892894.695661649</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="U96" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V96" t="s">
+        <v>129</v>
+      </c>
+      <c r="W96" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" spans="2:23">
+      <c r="B97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" t="s">
+        <v>127</v>
+      </c>
+      <c r="D97" t="s">
+        <v>53</v>
+      </c>
+      <c r="E97">
+        <v>13278264.4</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>14973254.65408111</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="U97" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V97" t="s">
+        <v>130</v>
+      </c>
+      <c r="W97" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="2:23">
+      <c r="B98" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" t="s">
+        <v>127</v>
+      </c>
+      <c r="D98" t="s">
+        <v>54</v>
+      </c>
+      <c r="E98">
+        <v>1544762</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>1741953.17318336</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="U98" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V98" t="s">
+        <v>131</v>
+      </c>
+      <c r="W98" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="2:23">
+      <c r="B99" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" t="s">
+        <v>127</v>
+      </c>
+      <c r="D99" t="s">
+        <v>55</v>
+      </c>
+      <c r="E99">
+        <v>1411014.44</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>1591132.537676057</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="U99" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V99" t="s">
+        <v>132</v>
+      </c>
+      <c r="W99" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="2:23">
+      <c r="B100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" t="s">
+        <v>127</v>
+      </c>
+      <c r="D100" t="s">
+        <v>56</v>
+      </c>
+      <c r="E100">
+        <v>2245000</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>2531577.598229787</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="U100" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V100" t="s">
+        <v>132</v>
+      </c>
+      <c r="W100" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101" spans="2:23">
+      <c r="B101" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" t="s">
+        <v>127</v>
+      </c>
+      <c r="D101" t="s">
+        <v>57</v>
+      </c>
+      <c r="E101">
+        <v>2752000</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>3103296.904377895</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="U101" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V101" t="s">
+        <v>132</v>
+      </c>
+      <c r="W101" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="102" spans="2:23">
+      <c r="B102" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" t="s">
+        <v>127</v>
+      </c>
+      <c r="D102" t="s">
+        <v>58</v>
+      </c>
+      <c r="E102">
+        <v>750000</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>845738.6185622897</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="U102" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V102" t="s">
+        <v>133</v>
+      </c>
+      <c r="W102" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="103" spans="2:23">
+      <c r="B103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" t="s">
+        <v>127</v>
+      </c>
+      <c r="D103" t="s">
+        <v>59</v>
+      </c>
+      <c r="E103">
+        <v>490000</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>552549.2307940293</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="U103" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V103" t="s">
+        <v>134</v>
+      </c>
+      <c r="W103" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="104" spans="2:23">
+      <c r="B104" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" t="s">
+        <v>127</v>
+      </c>
+      <c r="D104" t="s">
+        <v>60</v>
+      </c>
+      <c r="E104">
+        <v>831400</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>937529.4499635836</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="U104" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V104" t="s">
+        <v>134</v>
+      </c>
+      <c r="W104" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" spans="2:23">
+      <c r="B105" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" t="s">
+        <v>127</v>
+      </c>
+      <c r="D105" t="s">
+        <v>61</v>
+      </c>
+      <c r="E105">
+        <v>207000</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>233423.858723192</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="U105" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V105" t="s">
+        <v>135</v>
+      </c>
+      <c r="W105" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="106" spans="2:23">
+      <c r="B106" t="s">
+        <v>18</v>
+      </c>
+      <c r="C106" t="s">
+        <v>127</v>
+      </c>
+      <c r="D106" t="s">
+        <v>62</v>
+      </c>
+      <c r="E106">
+        <v>97197.71000000001</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>109605.1426437574</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="U106" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V106" t="s">
+        <v>136</v>
+      </c>
+      <c r="W106" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="107" spans="2:23">
+      <c r="B107" t="s">
+        <v>19</v>
+      </c>
+      <c r="C107" t="s">
+        <v>127</v>
+      </c>
+      <c r="D107" t="s">
+        <v>63</v>
+      </c>
+      <c r="E107">
+        <v>138500</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>156179.7315611695</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="U107" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V107" t="s">
+        <v>137</v>
+      </c>
+      <c r="W107" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="108" spans="2:23">
+      <c r="B108" t="s">
+        <v>20</v>
+      </c>
+      <c r="C108" t="s">
+        <v>127</v>
+      </c>
+      <c r="D108" t="s">
+        <v>64</v>
+      </c>
+      <c r="E108">
+        <v>207000</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>233423.858723192</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="U108" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V108" t="s">
+        <v>138</v>
+      </c>
+      <c r="W108" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="109" spans="2:23">
+      <c r="B109" t="s">
+        <v>21</v>
+      </c>
+      <c r="C109" t="s">
+        <v>127</v>
+      </c>
+      <c r="D109" t="s">
+        <v>65</v>
+      </c>
+      <c r="E109">
+        <v>208000</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>234551.5102146084</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="U109" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V109" t="s">
+        <v>139</v>
+      </c>
+      <c r="W109" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="110" spans="2:23">
+      <c r="B110" t="s">
+        <v>22</v>
+      </c>
+      <c r="C110" t="s">
+        <v>127</v>
+      </c>
+      <c r="D110" t="s">
+        <v>66</v>
+      </c>
+      <c r="E110">
+        <v>400000</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>451060.5965665545</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="U110" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V110" t="s">
+        <v>140</v>
+      </c>
+      <c r="W110" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="111" spans="2:23">
+      <c r="B111" t="s">
+        <v>23</v>
+      </c>
+      <c r="C111" t="s">
+        <v>127</v>
+      </c>
+      <c r="D111" t="s">
+        <v>67</v>
+      </c>
+      <c r="E111">
+        <v>281339.24</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>317252.6135799526</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="U111" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V111" t="s">
+        <v>141</v>
+      </c>
+      <c r="W111" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="112" spans="2:23">
+      <c r="B112" t="s">
+        <v>24</v>
+      </c>
+      <c r="C112" t="s">
+        <v>127</v>
+      </c>
+      <c r="D112" t="s">
+        <v>68</v>
+      </c>
+      <c r="E112">
+        <v>81587.97</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>92002.79605213538</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="U112" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V112" t="s">
+        <v>142</v>
+      </c>
+      <c r="W112" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="113" spans="2:23">
+      <c r="B113" t="s">
+        <v>25</v>
+      </c>
+      <c r="C113" t="s">
+        <v>127</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113">
+        <v>881417.6899999999</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>993931.972689286</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="U113" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V113" t="s">
+        <v>143</v>
+      </c>
+      <c r="W113" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="114" spans="2:23">
+      <c r="B114" t="s">
+        <v>26</v>
+      </c>
+      <c r="C114" t="s">
+        <v>127</v>
+      </c>
+      <c r="D114" t="s">
+        <v>70</v>
+      </c>
+      <c r="E114">
+        <v>66000</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>74424.99843348149</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="U114" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V114" t="s">
+        <v>144</v>
+      </c>
+      <c r="W114" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="115" spans="2:23">
+      <c r="B115" t="s">
+        <v>26</v>
+      </c>
+      <c r="C115" t="s">
+        <v>127</v>
+      </c>
+      <c r="D115" t="s">
+        <v>71</v>
+      </c>
+      <c r="E115">
+        <v>502796.02</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>566978.6818312232</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="U115" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V115" t="s">
+        <v>144</v>
+      </c>
+      <c r="W115" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="116" spans="2:23">
+      <c r="B116" t="s">
+        <v>27</v>
+      </c>
+      <c r="C116" t="s">
+        <v>127</v>
+      </c>
+      <c r="D116" t="s">
+        <v>72</v>
+      </c>
+      <c r="E116">
+        <v>207000</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>233423.858723192</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="U116" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V116" t="s">
+        <v>145</v>
+      </c>
+      <c r="W116" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="117" spans="2:23">
+      <c r="B117" t="s">
+        <v>28</v>
+      </c>
+      <c r="C117" t="s">
+        <v>127</v>
+      </c>
+      <c r="D117" t="s">
+        <v>73</v>
+      </c>
+      <c r="E117">
+        <v>72167.81</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>81380.1385787544</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="U117" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V117" t="s">
+        <v>146</v>
+      </c>
+      <c r="W117" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="118" spans="2:23">
+      <c r="B118" t="s">
+        <v>29</v>
+      </c>
+      <c r="C118" t="s">
+        <v>127</v>
+      </c>
+      <c r="D118" t="s">
+        <v>74</v>
+      </c>
+      <c r="E118">
+        <v>9098.42</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>10259.84688253268</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="U118" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V118" t="s">
+        <v>147</v>
+      </c>
+      <c r="W118" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="119" spans="2:23">
+      <c r="B119" t="s">
+        <v>30</v>
+      </c>
+      <c r="C119" t="s">
+        <v>127</v>
+      </c>
+      <c r="D119" t="s">
+        <v>75</v>
+      </c>
+      <c r="E119">
+        <v>207000</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>233423.858723192</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="U119" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V119" t="s">
+        <v>148</v>
+      </c>
+      <c r="W119" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="120" spans="2:23">
+      <c r="B120" t="s">
+        <v>31</v>
+      </c>
+      <c r="C120" t="s">
+        <v>127</v>
+      </c>
+      <c r="D120" t="s">
+        <v>76</v>
+      </c>
+      <c r="E120">
+        <v>102000</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>115020.4521244714</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="U120" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V120" t="s">
+        <v>149</v>
+      </c>
+      <c r="W120" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="121" spans="2:23">
+      <c r="B121" t="s">
+        <v>32</v>
+      </c>
+      <c r="C121" t="s">
+        <v>127</v>
+      </c>
+      <c r="D121" t="s">
+        <v>77</v>
+      </c>
+      <c r="E121">
+        <v>345000</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>389039.7645386533</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="U121" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V121" t="s">
+        <v>150</v>
+      </c>
+      <c r="W121" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="122" spans="2:23">
+      <c r="B122" t="s">
+        <v>33</v>
+      </c>
+      <c r="C122" t="s">
+        <v>127</v>
+      </c>
+      <c r="D122" t="s">
+        <v>78</v>
+      </c>
+      <c r="E122">
+        <v>430000</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>484890.1413090461</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="U122" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V122" t="s">
+        <v>151</v>
+      </c>
+      <c r="W122" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="123" spans="2:23">
+      <c r="B123" t="s">
+        <v>34</v>
+      </c>
+      <c r="C123" t="s">
+        <v>127</v>
+      </c>
+      <c r="D123" t="s">
+        <v>79</v>
+      </c>
+      <c r="E123">
+        <v>66102.3</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>74540.3571810534</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="U123" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V123" t="s">
+        <v>152</v>
+      </c>
+      <c r="W123" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="124" spans="2:23">
+      <c r="B124" t="s">
+        <v>35</v>
+      </c>
+      <c r="C124" t="s">
+        <v>127</v>
+      </c>
+      <c r="D124" t="s">
+        <v>80</v>
+      </c>
+      <c r="E124">
+        <v>3253.19</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>3668.464555360874</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="U124" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V124" t="s">
+        <v>153</v>
+      </c>
+      <c r="W124" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="125" spans="2:23">
+      <c r="B125" t="s">
+        <v>36</v>
+      </c>
+      <c r="C125" t="s">
+        <v>127</v>
+      </c>
+      <c r="D125" t="s">
+        <v>81</v>
+      </c>
+      <c r="E125">
+        <v>207000</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>233423.858723192</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="U125" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V125" t="s">
+        <v>154</v>
+      </c>
+      <c r="W125" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="126" spans="2:23">
+      <c r="B126" t="s">
+        <v>37</v>
+      </c>
+      <c r="C126" t="s">
+        <v>127</v>
+      </c>
+      <c r="D126" t="s">
+        <v>82</v>
+      </c>
+      <c r="E126">
+        <v>408375.1</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>460504.7905723159</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="U126" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V126" t="s">
+        <v>155</v>
+      </c>
+      <c r="W126" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="127" spans="2:23">
+      <c r="B127" t="s">
+        <v>38</v>
+      </c>
+      <c r="C127" t="s">
+        <v>127</v>
+      </c>
+      <c r="D127" t="s">
+        <v>83</v>
+      </c>
+      <c r="E127">
+        <v>207000</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>233423.858723192</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="U127" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V127" t="s">
+        <v>156</v>
+      </c>
+      <c r="W127" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="128" spans="2:23">
+      <c r="B128" t="s">
+        <v>39</v>
+      </c>
+      <c r="C128" t="s">
+        <v>127</v>
+      </c>
+      <c r="D128" t="s">
+        <v>84</v>
+      </c>
+      <c r="E128">
+        <v>15392427.09</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>17357293.36455649</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="U128" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V128" t="s">
+        <v>39</v>
+      </c>
+      <c r="W128" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="129" spans="2:23">
+      <c r="B129" t="s">
+        <v>39</v>
+      </c>
+      <c r="C129" t="s">
+        <v>127</v>
+      </c>
+      <c r="D129" t="s">
+        <v>85</v>
+      </c>
+      <c r="E129">
+        <v>3688000</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>4158778.700343633</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="U129" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V129" t="s">
+        <v>39</v>
+      </c>
+      <c r="W129" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="130" spans="2:23">
+      <c r="B130" t="s">
+        <v>39</v>
+      </c>
+      <c r="C130" t="s">
+        <v>127</v>
+      </c>
+      <c r="D130" t="s">
+        <v>86</v>
+      </c>
+      <c r="E130">
+        <v>10000000</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>11276514.91416386</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="U130" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V130" t="s">
+        <v>39</v>
+      </c>
+      <c r="W130" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="131" spans="2:23">
+      <c r="B131" t="s">
+        <v>40</v>
+      </c>
+      <c r="C131" t="s">
+        <v>127</v>
+      </c>
+      <c r="D131" t="s">
+        <v>87</v>
+      </c>
+      <c r="E131">
+        <v>16863198</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>19015810.37474982</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="U131" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V131" t="s">
+        <v>40</v>
+      </c>
+      <c r="W131" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="132" spans="2:23">
+      <c r="B132" t="s">
+        <v>40</v>
+      </c>
+      <c r="C132" t="s">
+        <v>127</v>
+      </c>
+      <c r="D132" t="s">
+        <v>88</v>
+      </c>
+      <c r="E132">
+        <v>3681000</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>4150885.139903718</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="U132" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V132" t="s">
+        <v>40</v>
+      </c>
+      <c r="W132" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="133" spans="2:23">
+      <c r="B133" t="s">
+        <v>41</v>
+      </c>
+      <c r="C133" t="s">
+        <v>127</v>
+      </c>
+      <c r="D133" t="s">
+        <v>89</v>
+      </c>
+      <c r="E133">
+        <v>625930.5</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>705831.4618480044</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="U133" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V133" t="s">
+        <v>41</v>
+      </c>
+      <c r="W133" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="134" spans="2:23">
+      <c r="B134" t="s">
+        <v>42</v>
+      </c>
+      <c r="C134" t="s">
+        <v>127</v>
+      </c>
+      <c r="D134" t="s">
+        <v>90</v>
+      </c>
+      <c r="E134">
+        <v>107800</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>121560.8307746864</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="U134" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V134" t="s">
+        <v>42</v>
+      </c>
+      <c r="W134" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="135" spans="2:23">
+      <c r="B135" t="s">
+        <v>43</v>
+      </c>
+      <c r="C135" t="s">
+        <v>127</v>
+      </c>
+      <c r="D135" t="s">
+        <v>91</v>
+      </c>
+      <c r="E135">
+        <v>414000</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>466847.717446384</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="U135" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V135" t="s">
+        <v>157</v>
+      </c>
+      <c r="W135" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="136" spans="2:23">
+      <c r="B136" t="s">
+        <v>44</v>
+      </c>
+      <c r="C136" t="s">
+        <v>127</v>
+      </c>
+      <c r="D136" t="s">
+        <v>92</v>
+      </c>
+      <c r="E136">
+        <v>46400</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>52323.02920172032</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="U136" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V136" t="s">
+        <v>158</v>
+      </c>
+      <c r="W136" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="137" spans="2:23">
+      <c r="B137" t="s">
+        <v>45</v>
+      </c>
+      <c r="C137" t="s">
+        <v>127</v>
+      </c>
+      <c r="D137" t="s">
+        <v>93</v>
+      </c>
+      <c r="E137">
+        <v>343031.28</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>386819.734494472</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="U137" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V137" t="s">
+        <v>159</v>
+      </c>
+      <c r="W137" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="138" spans="2:23">
+      <c r="B138" t="s">
+        <v>46</v>
+      </c>
+      <c r="C138" t="s">
+        <v>127</v>
+      </c>
+      <c r="D138" t="s">
+        <v>94</v>
+      </c>
+      <c r="E138">
+        <v>284986</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>321364.8879327903</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="U138" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V138" t="s">
+        <v>46</v>
+      </c>
+      <c r="W138" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="139" spans="2:23">
+      <c r="B139" t="s">
+        <v>47</v>
+      </c>
+      <c r="C139" t="s">
+        <v>127</v>
+      </c>
+      <c r="D139" t="s">
+        <v>95</v>
+      </c>
+      <c r="E139">
+        <v>345000</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>389039.7645386533</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="U139" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V139" t="s">
+        <v>47</v>
+      </c>
+      <c r="W139" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="140" spans="2:23">
+      <c r="B140" t="s">
+        <v>48</v>
+      </c>
+      <c r="C140" t="s">
+        <v>127</v>
+      </c>
+      <c r="D140" t="s">
+        <v>96</v>
+      </c>
+      <c r="E140">
+        <v>309000</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>348444.3108476634</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="U140" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V140" t="s">
+        <v>160</v>
+      </c>
+      <c r="W140" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="141" spans="2:23">
+      <c r="B141" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" t="s">
+        <v>128</v>
+      </c>
+      <c r="D141" t="s">
+        <v>97</v>
+      </c>
+      <c r="E141">
+        <v>608000</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>685612.1067811629</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="U141" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V141" t="s">
+        <v>129</v>
+      </c>
+      <c r="W141" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="142" spans="2:23">
+      <c r="B142" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" t="s">
+        <v>128</v>
+      </c>
+      <c r="D142" t="s">
+        <v>98</v>
+      </c>
+      <c r="E142">
+        <v>175000</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>197339.0109978676</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="U142" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V142" t="s">
+        <v>129</v>
+      </c>
+      <c r="W142" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="143" spans="2:23">
+      <c r="B143" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" t="s">
+        <v>128</v>
+      </c>
+      <c r="D143" t="s">
+        <v>99</v>
+      </c>
+      <c r="E143">
+        <v>750000</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>845738.6185622897</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="U143" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V143" t="s">
+        <v>129</v>
+      </c>
+      <c r="W143" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="144" spans="2:23">
+      <c r="B144" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" t="s">
+        <v>128</v>
+      </c>
+      <c r="D144" t="s">
+        <v>100</v>
+      </c>
+      <c r="E144">
+        <v>5200000</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>5863787.755365209</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="U144" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V144" t="s">
+        <v>130</v>
+      </c>
+      <c r="W144" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="145" spans="2:23">
+      <c r="B145" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" t="s">
+        <v>128</v>
+      </c>
+      <c r="D145" t="s">
+        <v>101</v>
+      </c>
+      <c r="E145">
+        <v>695280</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>784033.5289519851</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="U145" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V145" t="s">
+        <v>131</v>
+      </c>
+      <c r="W145" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="146" spans="2:23">
+      <c r="B146" t="s">
+        <v>14</v>
+      </c>
+      <c r="C146" t="s">
+        <v>128</v>
+      </c>
+      <c r="D146" t="s">
+        <v>102</v>
+      </c>
+      <c r="E146">
+        <v>783000</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>882951.1177790305</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="U146" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V146" t="s">
+        <v>132</v>
+      </c>
+      <c r="W146" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="147" spans="2:23">
+      <c r="B147" t="s">
+        <v>14</v>
+      </c>
+      <c r="C147" t="s">
+        <v>128</v>
+      </c>
+      <c r="D147" t="s">
+        <v>103</v>
+      </c>
+      <c r="E147">
+        <v>840153.99</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>947400.8998429277</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="U147" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V147" t="s">
+        <v>132</v>
+      </c>
+      <c r="W147" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="148" spans="2:23">
+      <c r="B148" t="s">
+        <v>16</v>
+      </c>
+      <c r="C148" t="s">
+        <v>128</v>
+      </c>
+      <c r="D148" t="s">
+        <v>104</v>
+      </c>
+      <c r="E148">
+        <v>184000</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>207487.8744206151</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="U148" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V148" t="s">
+        <v>134</v>
+      </c>
+      <c r="W148" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="149" spans="2:23">
+      <c r="B149" t="s">
+        <v>16</v>
+      </c>
+      <c r="C149" t="s">
+        <v>128</v>
+      </c>
+      <c r="D149" t="s">
+        <v>105</v>
+      </c>
+      <c r="E149">
+        <v>312420</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>352300.8789483074</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="U149" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V149" t="s">
+        <v>134</v>
+      </c>
+      <c r="W149" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="150" spans="2:23">
+      <c r="B150" t="s">
+        <v>19</v>
+      </c>
+      <c r="C150" t="s">
+        <v>128</v>
+      </c>
+      <c r="D150" t="s">
+        <v>106</v>
+      </c>
+      <c r="E150">
+        <v>61500</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>69350.56672210776</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="U150" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V150" t="s">
+        <v>137</v>
+      </c>
+      <c r="W150" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="151" spans="2:23">
+      <c r="B151" t="s">
+        <v>20</v>
+      </c>
+      <c r="C151" t="s">
+        <v>128</v>
+      </c>
+      <c r="D151" t="s">
+        <v>107</v>
+      </c>
+      <c r="E151">
+        <v>93000</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>104871.5887017239</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="U151" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V151" t="s">
+        <v>138</v>
+      </c>
+      <c r="W151" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="152" spans="2:23">
+      <c r="B152" t="s">
+        <v>21</v>
+      </c>
+      <c r="C152" t="s">
+        <v>128</v>
+      </c>
+      <c r="D152" t="s">
+        <v>108</v>
+      </c>
+      <c r="E152">
+        <v>92000</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>103743.9372103075</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="U152" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V152" t="s">
+        <v>139</v>
+      </c>
+      <c r="W152" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="153" spans="2:23">
+      <c r="B153" t="s">
+        <v>24</v>
+      </c>
+      <c r="C153" t="s">
+        <v>128</v>
+      </c>
+      <c r="D153" t="s">
+        <v>109</v>
+      </c>
+      <c r="E153">
+        <v>41880</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>47226.04446051826</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="U153" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V153" t="s">
+        <v>142</v>
+      </c>
+      <c r="W153" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="154" spans="2:23">
+      <c r="B154" t="s">
+        <v>25</v>
+      </c>
+      <c r="C154" t="s">
+        <v>128</v>
+      </c>
+      <c r="D154" t="s">
+        <v>110</v>
+      </c>
+      <c r="E154">
+        <v>368544</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>415589.1912525607</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="U154" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V154" t="s">
+        <v>143</v>
+      </c>
+      <c r="W154" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="155" spans="2:23">
+      <c r="B155" t="s">
+        <v>27</v>
+      </c>
+      <c r="C155" t="s">
+        <v>128</v>
+      </c>
+      <c r="D155" t="s">
+        <v>111</v>
+      </c>
+      <c r="E155">
+        <v>93000</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>104871.5887017239</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="U155" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V155" t="s">
+        <v>145</v>
+      </c>
+      <c r="W155" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="156" spans="2:23">
+      <c r="B156" t="s">
+        <v>30</v>
+      </c>
+      <c r="C156" t="s">
+        <v>128</v>
+      </c>
+      <c r="D156" t="s">
+        <v>112</v>
+      </c>
+      <c r="E156">
+        <v>93000</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>104871.5887017239</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="U156" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V156" t="s">
+        <v>148</v>
+      </c>
+      <c r="W156" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="157" spans="2:23">
+      <c r="B157" t="s">
+        <v>31</v>
+      </c>
+      <c r="C157" t="s">
+        <v>128</v>
+      </c>
+      <c r="D157" t="s">
+        <v>113</v>
+      </c>
+      <c r="E157">
+        <v>48000</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>54127.27158798654</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="U157" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V157" t="s">
+        <v>149</v>
+      </c>
+      <c r="W157" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="158" spans="2:23">
+      <c r="B158" t="s">
+        <v>32</v>
+      </c>
+      <c r="C158" t="s">
+        <v>128</v>
+      </c>
+      <c r="D158" t="s">
+        <v>114</v>
+      </c>
+      <c r="E158">
+        <v>155000</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>174785.9811695399</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="U158" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V158" t="s">
+        <v>150</v>
+      </c>
+      <c r="W158" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="159" spans="2:23">
+      <c r="B159" t="s">
+        <v>33</v>
+      </c>
+      <c r="C159" t="s">
+        <v>128</v>
+      </c>
+      <c r="D159" t="s">
+        <v>115</v>
+      </c>
+      <c r="E159">
+        <v>170000</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>191700.7535407857</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="U159" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V159" t="s">
+        <v>151</v>
+      </c>
+      <c r="W159" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="160" spans="2:23">
+      <c r="B160" t="s">
+        <v>35</v>
+      </c>
+      <c r="C160" t="s">
+        <v>128</v>
+      </c>
+      <c r="D160" t="s">
+        <v>116</v>
+      </c>
+      <c r="E160">
+        <v>93000</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>104871.5887017239</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="U160" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V160" t="s">
+        <v>153</v>
+      </c>
+      <c r="W160" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="161" spans="2:23">
+      <c r="B161" t="s">
+        <v>36</v>
+      </c>
+      <c r="C161" t="s">
+        <v>128</v>
+      </c>
+      <c r="D161" t="s">
+        <v>117</v>
+      </c>
+      <c r="E161">
+        <v>93000</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>104871.5887017239</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="U161" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V161" t="s">
+        <v>154</v>
+      </c>
+      <c r="W161" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="162" spans="2:23">
+      <c r="B162" t="s">
+        <v>37</v>
+      </c>
+      <c r="C162" t="s">
+        <v>128</v>
+      </c>
+      <c r="D162" t="s">
+        <v>118</v>
+      </c>
+      <c r="E162">
+        <v>170000</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>191700.7535407857</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="U162" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V162" t="s">
+        <v>155</v>
+      </c>
+      <c r="W162" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="163" spans="2:23">
+      <c r="B163" t="s">
+        <v>38</v>
+      </c>
+      <c r="C163" t="s">
+        <v>128</v>
+      </c>
+      <c r="D163" t="s">
+        <v>119</v>
+      </c>
+      <c r="E163">
+        <v>93000</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>104871.5887017239</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="U163" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V163" t="s">
+        <v>156</v>
+      </c>
+      <c r="W163" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="164" spans="2:23">
+      <c r="B164" t="s">
+        <v>43</v>
+      </c>
+      <c r="C164" t="s">
+        <v>128</v>
+      </c>
+      <c r="D164" t="s">
+        <v>120</v>
+      </c>
+      <c r="E164">
+        <v>192996</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>217632.2272373969</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="U164" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V164" t="s">
+        <v>157</v>
+      </c>
+      <c r="W164" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="165" spans="2:23">
+      <c r="B165" t="s">
+        <v>46</v>
+      </c>
+      <c r="C165" t="s">
+        <v>128</v>
+      </c>
+      <c r="D165" t="s">
+        <v>121</v>
+      </c>
+      <c r="E165">
+        <v>132614</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>149542.3748826926</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="U165" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V165" t="s">
+        <v>46</v>
+      </c>
+      <c r="W165" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="166" spans="2:23">
+      <c r="B166" t="s">
+        <v>48</v>
+      </c>
+      <c r="C166" t="s">
+        <v>128</v>
+      </c>
+      <c r="D166" t="s">
+        <v>122</v>
+      </c>
+      <c r="E166">
+        <v>141000</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>158998.8602897105</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="U166" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V166" t="s">
+        <v>160</v>
+      </c>
+      <c r="W166" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="167" spans="2:23">
+      <c r="B167" t="s">
+        <v>47</v>
+      </c>
+      <c r="C167" t="s">
+        <v>128</v>
+      </c>
+      <c r="D167" t="s">
+        <v>123</v>
+      </c>
+      <c r="E167">
+        <v>155000</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>174785.9811695399</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="U167" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V167" t="s">
+        <v>47</v>
+      </c>
+      <c r="W167" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="168" spans="2:23">
+      <c r="B168" t="s">
+        <v>49</v>
+      </c>
+      <c r="C168" t="s">
+        <v>128</v>
+      </c>
+      <c r="D168" t="s">
+        <v>124</v>
+      </c>
+      <c r="E168">
+        <v>500000</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>563825.7457081932</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="U168" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V168" t="s">
+        <v>39</v>
+      </c>
+      <c r="W168" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="169" spans="2:23">
+      <c r="B169" t="s">
+        <v>17</v>
+      </c>
+      <c r="C169" t="s">
+        <v>128</v>
+      </c>
+      <c r="D169" t="s">
+        <v>125</v>
+      </c>
+      <c r="E169">
+        <v>93000</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>104871.5887017239</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="U169" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V169" t="s">
+        <v>135</v>
+      </c>
+      <c r="W169" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="170" spans="2:23">
+      <c r="B170" t="s">
+        <v>34</v>
+      </c>
+      <c r="C170" t="s">
+        <v>128</v>
+      </c>
+      <c r="D170" t="s">
+        <v>126</v>
+      </c>
+      <c r="E170">
+        <v>28000</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>31574.24175965882</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="U170" t="s">
+        <v>1606</v>
+      </c>
+      <c r="V170" t="s">
+        <v>152</v>
+      </c>
+      <c r="W170" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="171" spans="2:23">
+      <c r="B171" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="172" spans="2:23">
+      <c r="B172" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="173" spans="2:23">
+      <c r="B173" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E173">
+        <v>272445227.34</v>
+      </c>
+      <c r="F173">
+        <v>1935012.754443571</v>
+      </c>
+      <c r="G173">
+        <v>283277309.1477216</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+      <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173">
+        <v>0</v>
+      </c>
+      <c r="O173">
+        <v>0</v>
+      </c>
+      <c r="P173">
+        <v>0</v>
+      </c>
+      <c r="Q173">
+        <v>0</v>
+      </c>
+      <c r="R173">
+        <v>0</v>
+      </c>
+      <c r="S173">
+        <v>0</v>
+      </c>
+      <c r="T173">
+        <v>0</v>
+      </c>
+      <c r="U173">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BI_Financeiro.xlsx
+++ b/BI_Financeiro.xlsx
@@ -11,14 +11,13 @@
     <sheet name="SintéticoNC" sheetId="2" r:id="rId2"/>
     <sheet name="ÍndiceCorreção" sheetId="3" r:id="rId3"/>
     <sheet name="Proponentes" sheetId="4" r:id="rId4"/>
-    <sheet name="ControleGeral" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9390" uniqueCount="1607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8260" uniqueCount="1523">
   <si>
     <t>proponente</t>
   </si>
@@ -4587,258 +4586,6 @@
   </si>
   <si>
     <t>DEP. JOSE LOURENÇO BOMFIM JUNIOR</t>
-  </si>
-  <si>
-    <t>processo</t>
-  </si>
-  <si>
-    <t>contrato</t>
-  </si>
-  <si>
-    <t>nota_de_empenho</t>
-  </si>
-  <si>
-    <t>valor_empenhado</t>
-  </si>
-  <si>
-    <t>valor_pago</t>
-  </si>
-  <si>
-    <t>saldo_do_empenho</t>
-  </si>
-  <si>
-    <t>consumo_%</t>
-  </si>
-  <si>
-    <t>janeiro</t>
-  </si>
-  <si>
-    <t>fevereiro</t>
-  </si>
-  <si>
-    <t>marco</t>
-  </si>
-  <si>
-    <t>abril</t>
-  </si>
-  <si>
-    <t>maio</t>
-  </si>
-  <si>
-    <t>junho</t>
-  </si>
-  <si>
-    <t>julho</t>
-  </si>
-  <si>
-    <t>agosto</t>
-  </si>
-  <si>
-    <t>setembro</t>
-  </si>
-  <si>
-    <t>outubro</t>
-  </si>
-  <si>
-    <t>novembro</t>
-  </si>
-  <si>
-    <t>dezembro</t>
-  </si>
-  <si>
-    <t>tipo</t>
-  </si>
-  <si>
-    <t>53115.006429/2021-12</t>
-  </si>
-  <si>
-    <t>53115.006430/2021-47</t>
-  </si>
-  <si>
-    <t>53115.006431/2021-91</t>
-  </si>
-  <si>
-    <t>53115.006432/2021-36</t>
-  </si>
-  <si>
-    <t>53115.006433/2021-81</t>
-  </si>
-  <si>
-    <t>53115.006434/2021-25</t>
-  </si>
-  <si>
-    <t>53115.021581/2021-25</t>
-  </si>
-  <si>
-    <t>53115.040805/2021-06</t>
-  </si>
-  <si>
-    <t>53115.006499/2021-71</t>
-  </si>
-  <si>
-    <t>01250.050185/2019-32</t>
-  </si>
-  <si>
-    <t>53115.006508/2021-23</t>
-  </si>
-  <si>
-    <t>53115.006538/2021-30</t>
-  </si>
-  <si>
-    <t>53115.006539/2021-84</t>
-  </si>
-  <si>
-    <t>53115.037097/2021-18</t>
-  </si>
-  <si>
-    <t>53115.006542/2021-06</t>
-  </si>
-  <si>
-    <t>53115.007124/2021-28</t>
-  </si>
-  <si>
-    <t>53115.007127/2021-61</t>
-  </si>
-  <si>
-    <t>53115.007128/2021-14</t>
-  </si>
-  <si>
-    <t>53115.007129/2021-51</t>
-  </si>
-  <si>
-    <t>53115.007135/2021-16</t>
-  </si>
-  <si>
-    <t>53115.007137/2021-05</t>
-  </si>
-  <si>
-    <t>53115.007138/2021-41</t>
-  </si>
-  <si>
-    <t>53115.007140/2021-11</t>
-  </si>
-  <si>
-    <t>53115.007143/2021-54</t>
-  </si>
-  <si>
-    <t>53115.007148/2021-87</t>
-  </si>
-  <si>
-    <t>53115.007150/2021-56</t>
-  </si>
-  <si>
-    <t>53115.023142/2021-57</t>
-  </si>
-  <si>
-    <t>53115.007159/2021-67</t>
-  </si>
-  <si>
-    <t>53115.007161/2021-36</t>
-  </si>
-  <si>
-    <t>53115.007162/2021-81</t>
-  </si>
-  <si>
-    <t>53115.007220/2021-76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01250.050436/2017-17 </t>
-  </si>
-  <si>
-    <t>53115.016194/2020-96</t>
-  </si>
-  <si>
-    <t>71000.038976/2019-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53900.014176/2014-75 </t>
-  </si>
-  <si>
-    <t>01250.024737/2020-91</t>
-  </si>
-  <si>
-    <t>53115.022459/2021-76</t>
-  </si>
-  <si>
-    <t>53115.007222/2021-65</t>
-  </si>
-  <si>
-    <t>53115.001389/2020-31</t>
-  </si>
-  <si>
-    <t>01250.013622/2020-71</t>
-  </si>
-  <si>
-    <t>53115.006506/2021-34</t>
-  </si>
-  <si>
-    <t>53115.007228/2021-32</t>
-  </si>
-  <si>
-    <t>53115.013564/2021-14</t>
-  </si>
-  <si>
-    <t>53115.007232/2021-09</t>
-  </si>
-  <si>
-    <t>NAN</t>
-  </si>
-  <si>
-    <t>2021NE000238</t>
-  </si>
-  <si>
-    <t>2021NE000239</t>
-  </si>
-  <si>
-    <t>2021NE000264</t>
-  </si>
-  <si>
-    <t>2021NE000235</t>
-  </si>
-  <si>
-    <t>2021NE000096</t>
-  </si>
-  <si>
-    <t>2021NE000099</t>
-  </si>
-  <si>
-    <t>2021NE000124</t>
-  </si>
-  <si>
-    <t>2021NE000259</t>
-  </si>
-  <si>
-    <t>2021NE000258</t>
-  </si>
-  <si>
-    <t>2021NE000091</t>
-  </si>
-  <si>
-    <t>2021NE000093</t>
-  </si>
-  <si>
-    <t>2020NE800055</t>
-  </si>
-  <si>
-    <t>2021NE000095</t>
-  </si>
-  <si>
-    <t>2021NE000102</t>
-  </si>
-  <si>
-    <t>Em. Comissão</t>
-  </si>
-  <si>
-    <t>Em. Individual</t>
-  </si>
-  <si>
-    <t>TED</t>
-  </si>
-  <si>
-    <t>MCom</t>
-  </si>
-  <si>
-    <t>Nota de Crédito</t>
   </si>
 </sst>
 </file>
@@ -51199,5829 +50946,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W173"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:23">
-      <c r="A1" s="1" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1524</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1525</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1526</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1527</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1528</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1529</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1530</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1531</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>1532</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>1533</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>1534</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>1535</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>1536</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>1537</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>1538</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>1539</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>1540</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>1541</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>1542</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" t="s">
-        <v>1543</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E2">
-        <v>1917000</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>1917000</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="U2" t="s">
-        <v>1602</v>
-      </c>
-      <c r="V2" t="s">
-        <v>129</v>
-      </c>
-      <c r="W2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" t="s">
-        <v>1543</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E3">
-        <v>524400</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>524400</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="U3" t="s">
-        <v>1602</v>
-      </c>
-      <c r="V3" t="s">
-        <v>129</v>
-      </c>
-      <c r="W3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" t="s">
-        <v>1543</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E4">
-        <v>608000</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>608000</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="U4" t="s">
-        <v>1602</v>
-      </c>
-      <c r="V4" t="s">
-        <v>129</v>
-      </c>
-      <c r="W4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" t="s">
-        <v>1543</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D5" t="s">
-        <v>241</v>
-      </c>
-      <c r="E5">
-        <v>175000</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>175000</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="U5" t="s">
-        <v>1602</v>
-      </c>
-      <c r="V5" t="s">
-        <v>129</v>
-      </c>
-      <c r="W5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" t="s">
-        <v>1543</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" t="s">
-        <v>195</v>
-      </c>
-      <c r="E6">
-        <v>5225812</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>5225812</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="U6" t="s">
-        <v>1602</v>
-      </c>
-      <c r="V6" t="s">
-        <v>129</v>
-      </c>
-      <c r="W6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
-      <c r="A7" t="s">
-        <v>1543</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D7" t="s">
-        <v>242</v>
-      </c>
-      <c r="E7">
-        <v>750000</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>750000</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="U7" t="s">
-        <v>1602</v>
-      </c>
-      <c r="V7" t="s">
-        <v>129</v>
-      </c>
-      <c r="W7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="A8" t="s">
-        <v>1544</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" t="s">
-        <v>196</v>
-      </c>
-      <c r="E8">
-        <v>13616356</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>13616356</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="U8" t="s">
-        <v>1602</v>
-      </c>
-      <c r="V8" t="s">
-        <v>130</v>
-      </c>
-      <c r="W8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="A9" t="s">
-        <v>1544</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>128</v>
-      </c>
-      <c r="D9" t="s">
-        <v>243</v>
-      </c>
-      <c r="E9">
-        <v>5200000</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>5200000</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="U9" t="s">
-        <v>1602</v>
-      </c>
-      <c r="V9" t="s">
-        <v>130</v>
-      </c>
-      <c r="W9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" t="s">
-        <v>1545</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10">
-        <v>1544762</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>1544762</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="U10" t="s">
-        <v>1602</v>
-      </c>
-      <c r="V10" t="s">
-        <v>131</v>
-      </c>
-      <c r="W10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="A11" t="s">
-        <v>1545</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" t="s">
-        <v>244</v>
-      </c>
-      <c r="E11">
-        <v>695280</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>695280</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="U11" t="s">
-        <v>1602</v>
-      </c>
-      <c r="V11" t="s">
-        <v>131</v>
-      </c>
-      <c r="W11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="A12" t="s">
-        <v>1546</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E12">
-        <v>1500000</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>1500000</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="U12" t="s">
-        <v>1602</v>
-      </c>
-      <c r="V12" t="s">
-        <v>132</v>
-      </c>
-      <c r="W12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" t="s">
-        <v>1546</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13" t="s">
-        <v>199</v>
-      </c>
-      <c r="E13">
-        <v>2245000</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>2245000</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="U13" t="s">
-        <v>1602</v>
-      </c>
-      <c r="V13" t="s">
-        <v>132</v>
-      </c>
-      <c r="W13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="A14" t="s">
-        <v>1546</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14" t="s">
-        <v>200</v>
-      </c>
-      <c r="E14">
-        <v>2752000</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>2752000</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="U14" t="s">
-        <v>1602</v>
-      </c>
-      <c r="V14" t="s">
-        <v>132</v>
-      </c>
-      <c r="W14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="A15" t="s">
-        <v>1546</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15" t="s">
-        <v>245</v>
-      </c>
-      <c r="E15">
-        <v>783000</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>783000</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="U15" t="s">
-        <v>1602</v>
-      </c>
-      <c r="V15" t="s">
-        <v>132</v>
-      </c>
-      <c r="W15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="A16" t="s">
-        <v>1546</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>128</v>
-      </c>
-      <c r="D16" t="s">
-        <v>246</v>
-      </c>
-      <c r="E16">
-        <v>840153.99</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>840153.99</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="U16" t="s">
-        <v>1602</v>
-      </c>
-      <c r="V16" t="s">
-        <v>132</v>
-      </c>
-      <c r="W16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23">
-      <c r="A17" t="s">
-        <v>1547</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" t="s">
-        <v>201</v>
-      </c>
-      <c r="E17">
-        <v>750000</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>750000</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="U17" t="s">
-        <v>1602</v>
-      </c>
-      <c r="V17" t="s">
-        <v>133</v>
-      </c>
-      <c r="W17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23">
-      <c r="A18" t="s">
-        <v>1548</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>127</v>
-      </c>
-      <c r="D18" t="s">
-        <v>202</v>
-      </c>
-      <c r="E18">
-        <v>490000</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>490000</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="U18" t="s">
-        <v>1602</v>
-      </c>
-      <c r="V18" t="s">
-        <v>134</v>
-      </c>
-      <c r="W18" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23">
-      <c r="A19" t="s">
-        <v>1548</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19" t="s">
-        <v>203</v>
-      </c>
-      <c r="E19">
-        <v>831400</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>831400</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="U19" t="s">
-        <v>1602</v>
-      </c>
-      <c r="V19" t="s">
-        <v>134</v>
-      </c>
-      <c r="W19" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23">
-      <c r="A20" t="s">
-        <v>1548</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D20" t="s">
-        <v>247</v>
-      </c>
-      <c r="E20">
-        <v>184000</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>184000</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="U20" t="s">
-        <v>1602</v>
-      </c>
-      <c r="V20" t="s">
-        <v>134</v>
-      </c>
-      <c r="W20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
-      <c r="A21" t="s">
-        <v>1548</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s">
-        <v>128</v>
-      </c>
-      <c r="D21" t="s">
-        <v>248</v>
-      </c>
-      <c r="E21">
-        <v>312420</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>312420</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="U21" t="s">
-        <v>1602</v>
-      </c>
-      <c r="V21" t="s">
-        <v>134</v>
-      </c>
-      <c r="W21" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
-      <c r="A22" t="s">
-        <v>1549</v>
-      </c>
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22" t="s">
-        <v>204</v>
-      </c>
-      <c r="E22">
-        <v>207000</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>207000</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="U22" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V22" t="s">
-        <v>135</v>
-      </c>
-      <c r="W22" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
-      <c r="A23" t="s">
-        <v>1549</v>
-      </c>
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" t="s">
-        <v>128</v>
-      </c>
-      <c r="D23" t="s">
-        <v>268</v>
-      </c>
-      <c r="E23">
-        <v>93000</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>93000</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="U23" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V23" t="s">
-        <v>135</v>
-      </c>
-      <c r="W23" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23">
-      <c r="A24" t="s">
-        <v>1550</v>
-      </c>
-      <c r="B24" t="s">
-        <v>948</v>
-      </c>
-      <c r="C24" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1588</v>
-      </c>
-      <c r="E24">
-        <v>241500</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>241500</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="U24" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V24" t="s">
-        <v>401</v>
-      </c>
-      <c r="W24" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23">
-      <c r="A25" t="s">
-        <v>1550</v>
-      </c>
-      <c r="B25" t="s">
-        <v>948</v>
-      </c>
-      <c r="C25" t="s">
-        <v>128</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1589</v>
-      </c>
-      <c r="E25">
-        <v>108500</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>108500</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="U25" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V25" t="s">
-        <v>401</v>
-      </c>
-      <c r="W25" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23">
-      <c r="A26" t="s">
-        <v>1551</v>
-      </c>
-      <c r="B26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26" t="s">
-        <v>205</v>
-      </c>
-      <c r="E26">
-        <v>215340</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>215340</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="U26" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V26" t="s">
-        <v>136</v>
-      </c>
-      <c r="W26" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23">
-      <c r="A27" t="s">
-        <v>1552</v>
-      </c>
-      <c r="B27" t="s">
-        <v>291</v>
-      </c>
-      <c r="C27" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1590</v>
-      </c>
-      <c r="E27">
-        <v>2238358.5</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>2238358.5</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="U27" t="s">
-        <v>1604</v>
-      </c>
-      <c r="V27" t="s">
-        <v>291</v>
-      </c>
-      <c r="W27" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23">
-      <c r="A28" t="s">
-        <v>1553</v>
-      </c>
-      <c r="B28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" t="s">
-        <v>127</v>
-      </c>
-      <c r="D28" t="s">
-        <v>206</v>
-      </c>
-      <c r="E28">
-        <v>138500</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>138500</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="U28" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V28" t="s">
-        <v>137</v>
-      </c>
-      <c r="W28" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23">
-      <c r="A29" t="s">
-        <v>1553</v>
-      </c>
-      <c r="B29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" t="s">
-        <v>128</v>
-      </c>
-      <c r="D29" t="s">
-        <v>249</v>
-      </c>
-      <c r="E29">
-        <v>61500</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>61500</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="U29" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V29" t="s">
-        <v>137</v>
-      </c>
-      <c r="W29" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23">
-      <c r="A30" t="s">
-        <v>1554</v>
-      </c>
-      <c r="B30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30" t="s">
-        <v>207</v>
-      </c>
-      <c r="E30">
-        <v>207000</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>207000</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="U30" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V30" t="s">
-        <v>138</v>
-      </c>
-      <c r="W30" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23">
-      <c r="A31" t="s">
-        <v>1554</v>
-      </c>
-      <c r="B31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" t="s">
-        <v>128</v>
-      </c>
-      <c r="D31" t="s">
-        <v>250</v>
-      </c>
-      <c r="E31">
-        <v>93000</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>93000</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="U31" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V31" t="s">
-        <v>138</v>
-      </c>
-      <c r="W31" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23">
-      <c r="A32" t="s">
-        <v>1555</v>
-      </c>
-      <c r="B32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" t="s">
-        <v>127</v>
-      </c>
-      <c r="D32" t="s">
-        <v>208</v>
-      </c>
-      <c r="E32">
-        <v>208000</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>208000</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="U32" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V32" t="s">
-        <v>139</v>
-      </c>
-      <c r="W32" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23">
-      <c r="A33" t="s">
-        <v>1555</v>
-      </c>
-      <c r="B33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" t="s">
-        <v>128</v>
-      </c>
-      <c r="D33" t="s">
-        <v>251</v>
-      </c>
-      <c r="E33">
-        <v>92000</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>92000</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="U33" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V33" t="s">
-        <v>139</v>
-      </c>
-      <c r="W33" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23">
-      <c r="A34" t="s">
-        <v>1556</v>
-      </c>
-      <c r="B34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" t="s">
-        <v>127</v>
-      </c>
-      <c r="D34" t="s">
-        <v>209</v>
-      </c>
-      <c r="E34">
-        <v>400000</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>400000</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="U34" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V34" t="s">
-        <v>140</v>
-      </c>
-      <c r="W34" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23">
-      <c r="A35" t="s">
-        <v>1556</v>
-      </c>
-      <c r="B35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" t="s">
-        <v>127</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1591</v>
-      </c>
-      <c r="E35">
-        <v>360000</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>360000</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="U35" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V35" t="s">
-        <v>140</v>
-      </c>
-      <c r="W35" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23">
-      <c r="A36" t="s">
-        <v>1557</v>
-      </c>
-      <c r="B36" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" t="s">
-        <v>127</v>
-      </c>
-      <c r="D36" t="s">
-        <v>210</v>
-      </c>
-      <c r="E36">
-        <v>339993</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>339993</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="U36" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V36" t="s">
-        <v>141</v>
-      </c>
-      <c r="W36" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23">
-      <c r="A37" t="s">
-        <v>1558</v>
-      </c>
-      <c r="B37" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" t="s">
-        <v>127</v>
-      </c>
-      <c r="D37" t="s">
-        <v>211</v>
-      </c>
-      <c r="E37">
-        <v>108120</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>108120</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="U37" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V37" t="s">
-        <v>142</v>
-      </c>
-      <c r="W37" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23">
-      <c r="A38" t="s">
-        <v>1558</v>
-      </c>
-      <c r="B38" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" t="s">
-        <v>128</v>
-      </c>
-      <c r="D38" t="s">
-        <v>252</v>
-      </c>
-      <c r="E38">
-        <v>41880</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>41880</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="U38" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V38" t="s">
-        <v>142</v>
-      </c>
-      <c r="W38" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23">
-      <c r="A39" t="s">
-        <v>1559</v>
-      </c>
-      <c r="B39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" t="s">
-        <v>127</v>
-      </c>
-      <c r="D39" t="s">
-        <v>212</v>
-      </c>
-      <c r="E39">
-        <v>1131456</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>1131456</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="U39" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V39" t="s">
-        <v>143</v>
-      </c>
-      <c r="W39" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23">
-      <c r="A40" t="s">
-        <v>1559</v>
-      </c>
-      <c r="B40" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" t="s">
-        <v>128</v>
-      </c>
-      <c r="D40" t="s">
-        <v>253</v>
-      </c>
-      <c r="E40">
-        <v>368544</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>368544</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="U40" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V40" t="s">
-        <v>143</v>
-      </c>
-      <c r="W40" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23">
-      <c r="A41" t="s">
-        <v>1560</v>
-      </c>
-      <c r="B41" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41" t="s">
-        <v>127</v>
-      </c>
-      <c r="D41" t="s">
-        <v>213</v>
-      </c>
-      <c r="E41">
-        <v>66000</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>66000</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="U41" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V41" t="s">
-        <v>144</v>
-      </c>
-      <c r="W41" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23">
-      <c r="A42" t="s">
-        <v>1560</v>
-      </c>
-      <c r="B42" t="s">
-        <v>26</v>
-      </c>
-      <c r="C42" t="s">
-        <v>127</v>
-      </c>
-      <c r="D42" t="s">
-        <v>214</v>
-      </c>
-      <c r="E42">
-        <v>561190</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>561190</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="U42" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V42" t="s">
-        <v>144</v>
-      </c>
-      <c r="W42" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23">
-      <c r="A43" t="s">
-        <v>1561</v>
-      </c>
-      <c r="B43" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" t="s">
-        <v>127</v>
-      </c>
-      <c r="D43" t="s">
-        <v>215</v>
-      </c>
-      <c r="E43">
-        <v>207000</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>207000</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="U43" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V43" t="s">
-        <v>145</v>
-      </c>
-      <c r="W43" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23">
-      <c r="A44" t="s">
-        <v>1561</v>
-      </c>
-      <c r="B44" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" t="s">
-        <v>128</v>
-      </c>
-      <c r="D44" t="s">
-        <v>254</v>
-      </c>
-      <c r="E44">
-        <v>93000</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>93000</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="U44" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V44" t="s">
-        <v>145</v>
-      </c>
-      <c r="W44" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23">
-      <c r="A45" t="s">
-        <v>1562</v>
-      </c>
-      <c r="B45" t="s">
-        <v>28</v>
-      </c>
-      <c r="C45" t="s">
-        <v>127</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1592</v>
-      </c>
-      <c r="E45">
-        <v>590000</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>590000</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="U45" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V45" t="s">
-        <v>146</v>
-      </c>
-      <c r="W45" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23">
-      <c r="A46" t="s">
-        <v>1562</v>
-      </c>
-      <c r="B46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" t="s">
-        <v>127</v>
-      </c>
-      <c r="D46" t="s">
-        <v>216</v>
-      </c>
-      <c r="E46">
-        <v>439986</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>439986</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="U46" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V46" t="s">
-        <v>146</v>
-      </c>
-      <c r="W46" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23">
-      <c r="A47" t="s">
-        <v>1563</v>
-      </c>
-      <c r="B47" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" t="s">
-        <v>127</v>
-      </c>
-      <c r="D47" t="s">
-        <v>217</v>
-      </c>
-      <c r="E47">
-        <v>440000</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>440000</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="U47" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V47" t="s">
-        <v>147</v>
-      </c>
-      <c r="W47" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23">
-      <c r="A48" t="s">
-        <v>1564</v>
-      </c>
-      <c r="B48" t="s">
-        <v>933</v>
-      </c>
-      <c r="C48" t="s">
-        <v>127</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1593</v>
-      </c>
-      <c r="E48">
-        <v>390000</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>390000</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="U48" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V48" t="s">
-        <v>629</v>
-      </c>
-      <c r="W48" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23">
-      <c r="A49" t="s">
-        <v>1564</v>
-      </c>
-      <c r="B49" t="s">
-        <v>933</v>
-      </c>
-      <c r="C49" t="s">
-        <v>127</v>
-      </c>
-      <c r="D49" t="s">
-        <v>1594</v>
-      </c>
-      <c r="E49">
-        <v>269340</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>269340</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="U49" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V49" t="s">
-        <v>629</v>
-      </c>
-      <c r="W49" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23">
-      <c r="A50" t="s">
-        <v>1565</v>
-      </c>
-      <c r="B50" t="s">
-        <v>30</v>
-      </c>
-      <c r="C50" t="s">
-        <v>127</v>
-      </c>
-      <c r="D50" t="s">
-        <v>218</v>
-      </c>
-      <c r="E50">
-        <v>207000</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>207000</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="U50" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V50" t="s">
-        <v>148</v>
-      </c>
-      <c r="W50" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23">
-      <c r="A51" t="s">
-        <v>1565</v>
-      </c>
-      <c r="B51" t="s">
-        <v>30</v>
-      </c>
-      <c r="C51" t="s">
-        <v>128</v>
-      </c>
-      <c r="D51" t="s">
-        <v>255</v>
-      </c>
-      <c r="E51">
-        <v>93000</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>93000</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="U51" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V51" t="s">
-        <v>148</v>
-      </c>
-      <c r="W51" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23">
-      <c r="A52" t="s">
-        <v>1566</v>
-      </c>
-      <c r="B52" t="s">
-        <v>31</v>
-      </c>
-      <c r="C52" t="s">
-        <v>127</v>
-      </c>
-      <c r="D52" t="s">
-        <v>219</v>
-      </c>
-      <c r="E52">
-        <v>102000</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>102000</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="U52" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V52" t="s">
-        <v>149</v>
-      </c>
-      <c r="W52" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23">
-      <c r="A53" t="s">
-        <v>1566</v>
-      </c>
-      <c r="B53" t="s">
-        <v>31</v>
-      </c>
-      <c r="C53" t="s">
-        <v>128</v>
-      </c>
-      <c r="D53" t="s">
-        <v>256</v>
-      </c>
-      <c r="E53">
-        <v>48000</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>48000</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="U53" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V53" t="s">
-        <v>149</v>
-      </c>
-      <c r="W53" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23">
-      <c r="A54" t="s">
-        <v>1567</v>
-      </c>
-      <c r="B54" t="s">
-        <v>32</v>
-      </c>
-      <c r="C54" t="s">
-        <v>127</v>
-      </c>
-      <c r="D54" t="s">
-        <v>220</v>
-      </c>
-      <c r="E54">
-        <v>345000</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>345000</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="U54" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V54" t="s">
-        <v>150</v>
-      </c>
-      <c r="W54" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23">
-      <c r="A55" t="s">
-        <v>1567</v>
-      </c>
-      <c r="B55" t="s">
-        <v>32</v>
-      </c>
-      <c r="C55" t="s">
-        <v>128</v>
-      </c>
-      <c r="D55" t="s">
-        <v>257</v>
-      </c>
-      <c r="E55">
-        <v>155000</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>155000</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="U55" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V55" t="s">
-        <v>150</v>
-      </c>
-      <c r="W55" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23">
-      <c r="A56" t="s">
-        <v>1568</v>
-      </c>
-      <c r="B56" t="s">
-        <v>33</v>
-      </c>
-      <c r="C56" t="s">
-        <v>127</v>
-      </c>
-      <c r="D56" t="s">
-        <v>221</v>
-      </c>
-      <c r="E56">
-        <v>430000</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>430000</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="U56" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V56" t="s">
-        <v>151</v>
-      </c>
-      <c r="W56" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23">
-      <c r="A57" t="s">
-        <v>1568</v>
-      </c>
-      <c r="B57" t="s">
-        <v>33</v>
-      </c>
-      <c r="C57" t="s">
-        <v>128</v>
-      </c>
-      <c r="D57" t="s">
-        <v>258</v>
-      </c>
-      <c r="E57">
-        <v>170000</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>170000</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="U57" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V57" t="s">
-        <v>151</v>
-      </c>
-      <c r="W57" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23">
-      <c r="A58" t="s">
-        <v>1569</v>
-      </c>
-      <c r="B58" t="s">
-        <v>34</v>
-      </c>
-      <c r="C58" t="s">
-        <v>127</v>
-      </c>
-      <c r="D58" t="s">
-        <v>222</v>
-      </c>
-      <c r="E58">
-        <v>72000</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>72000</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="U58" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V58" t="s">
-        <v>152</v>
-      </c>
-      <c r="W58" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23">
-      <c r="A59" t="s">
-        <v>1569</v>
-      </c>
-      <c r="B59" t="s">
-        <v>34</v>
-      </c>
-      <c r="C59" t="s">
-        <v>128</v>
-      </c>
-      <c r="D59" t="s">
-        <v>269</v>
-      </c>
-      <c r="E59">
-        <v>28000</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>28000</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="U59" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V59" t="s">
-        <v>152</v>
-      </c>
-      <c r="W59" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23">
-      <c r="A60" t="s">
-        <v>1570</v>
-      </c>
-      <c r="B60" t="s">
-        <v>35</v>
-      </c>
-      <c r="C60" t="s">
-        <v>127</v>
-      </c>
-      <c r="D60" t="s">
-        <v>223</v>
-      </c>
-      <c r="E60">
-        <v>207000</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>207000</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="U60" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V60" t="s">
-        <v>153</v>
-      </c>
-      <c r="W60" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23">
-      <c r="A61" t="s">
-        <v>1570</v>
-      </c>
-      <c r="B61" t="s">
-        <v>35</v>
-      </c>
-      <c r="C61" t="s">
-        <v>128</v>
-      </c>
-      <c r="D61" t="s">
-        <v>259</v>
-      </c>
-      <c r="E61">
-        <v>93000</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>93000</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="U61" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V61" t="s">
-        <v>153</v>
-      </c>
-      <c r="W61" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23">
-      <c r="A62" t="s">
-        <v>1571</v>
-      </c>
-      <c r="B62" t="s">
-        <v>36</v>
-      </c>
-      <c r="C62" t="s">
-        <v>127</v>
-      </c>
-      <c r="D62" t="s">
-        <v>224</v>
-      </c>
-      <c r="E62">
-        <v>207000</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>207000</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="U62" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V62" t="s">
-        <v>154</v>
-      </c>
-      <c r="W62" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23">
-      <c r="A63" t="s">
-        <v>1571</v>
-      </c>
-      <c r="B63" t="s">
-        <v>36</v>
-      </c>
-      <c r="C63" t="s">
-        <v>128</v>
-      </c>
-      <c r="D63" t="s">
-        <v>260</v>
-      </c>
-      <c r="E63">
-        <v>93000</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>93000</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="U63" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V63" t="s">
-        <v>154</v>
-      </c>
-      <c r="W63" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23">
-      <c r="A64" t="s">
-        <v>1572</v>
-      </c>
-      <c r="B64" t="s">
-        <v>37</v>
-      </c>
-      <c r="C64" t="s">
-        <v>127</v>
-      </c>
-      <c r="D64" t="s">
-        <v>225</v>
-      </c>
-      <c r="E64">
-        <v>430000</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>430000</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="U64" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V64" t="s">
-        <v>155</v>
-      </c>
-      <c r="W64" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23">
-      <c r="A65" t="s">
-        <v>1572</v>
-      </c>
-      <c r="B65" t="s">
-        <v>37</v>
-      </c>
-      <c r="C65" t="s">
-        <v>128</v>
-      </c>
-      <c r="D65" t="s">
-        <v>261</v>
-      </c>
-      <c r="E65">
-        <v>170000</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>170000</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="U65" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V65" t="s">
-        <v>155</v>
-      </c>
-      <c r="W65" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23">
-      <c r="A66" t="s">
-        <v>1573</v>
-      </c>
-      <c r="B66" t="s">
-        <v>38</v>
-      </c>
-      <c r="C66" t="s">
-        <v>127</v>
-      </c>
-      <c r="D66" t="s">
-        <v>226</v>
-      </c>
-      <c r="E66">
-        <v>207000</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>207000</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="U66" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V66" t="s">
-        <v>156</v>
-      </c>
-      <c r="W66" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23">
-      <c r="A67" t="s">
-        <v>1573</v>
-      </c>
-      <c r="B67" t="s">
-        <v>38</v>
-      </c>
-      <c r="C67" t="s">
-        <v>128</v>
-      </c>
-      <c r="D67" t="s">
-        <v>262</v>
-      </c>
-      <c r="E67">
-        <v>93000</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>93000</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="U67" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V67" t="s">
-        <v>156</v>
-      </c>
-      <c r="W67" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23">
-      <c r="A68" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B68" t="s">
-        <v>49</v>
-      </c>
-      <c r="C68" t="s">
-        <v>127</v>
-      </c>
-      <c r="D68" t="s">
-        <v>227</v>
-      </c>
-      <c r="E68">
-        <v>34652118</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>34652118</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="U68" t="s">
-        <v>1605</v>
-      </c>
-      <c r="V68" t="s">
-        <v>39</v>
-      </c>
-      <c r="W68" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23">
-      <c r="A69" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B69" t="s">
-        <v>49</v>
-      </c>
-      <c r="C69" t="s">
-        <v>127</v>
-      </c>
-      <c r="D69" t="s">
-        <v>228</v>
-      </c>
-      <c r="E69">
-        <v>3688000</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <v>3688000</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="U69" t="s">
-        <v>1605</v>
-      </c>
-      <c r="V69" t="s">
-        <v>39</v>
-      </c>
-      <c r="W69" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23">
-      <c r="A70" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B70" t="s">
-        <v>49</v>
-      </c>
-      <c r="C70" t="s">
-        <v>127</v>
-      </c>
-      <c r="D70" t="s">
-        <v>229</v>
-      </c>
-      <c r="E70">
-        <v>10000000</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>10000000</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="U70" t="s">
-        <v>1605</v>
-      </c>
-      <c r="V70" t="s">
-        <v>39</v>
-      </c>
-      <c r="W70" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23">
-      <c r="A71" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B71" t="s">
-        <v>49</v>
-      </c>
-      <c r="C71" t="s">
-        <v>128</v>
-      </c>
-      <c r="D71" t="s">
-        <v>267</v>
-      </c>
-      <c r="E71">
-        <v>500000</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>500000</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="U71" t="s">
-        <v>1605</v>
-      </c>
-      <c r="V71" t="s">
-        <v>39</v>
-      </c>
-      <c r="W71" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23">
-      <c r="A72" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B72" t="s">
-        <v>922</v>
-      </c>
-      <c r="C72" t="s">
-        <v>127</v>
-      </c>
-      <c r="D72" t="s">
-        <v>1595</v>
-      </c>
-      <c r="E72">
-        <v>324000</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>324000</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="U72" t="s">
-        <v>1605</v>
-      </c>
-      <c r="V72" t="s">
-        <v>39</v>
-      </c>
-      <c r="W72" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23">
-      <c r="A73" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B73" t="s">
-        <v>922</v>
-      </c>
-      <c r="C73" t="s">
-        <v>128</v>
-      </c>
-      <c r="D73" t="s">
-        <v>1596</v>
-      </c>
-      <c r="E73">
-        <v>176000</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>176000</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="U73" t="s">
-        <v>1605</v>
-      </c>
-      <c r="V73" t="s">
-        <v>39</v>
-      </c>
-      <c r="W73" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23">
-      <c r="A74" t="s">
-        <v>1576</v>
-      </c>
-      <c r="B74" t="s">
-        <v>284</v>
-      </c>
-      <c r="C74" t="s">
-        <v>127</v>
-      </c>
-      <c r="E74">
-        <v>600000</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>600000</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="U74" t="s">
-        <v>1604</v>
-      </c>
-      <c r="V74" t="s">
-        <v>284</v>
-      </c>
-      <c r="W74" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23">
-      <c r="A75" t="s">
-        <v>1577</v>
-      </c>
-      <c r="B75" t="s">
-        <v>40</v>
-      </c>
-      <c r="C75" t="s">
-        <v>127</v>
-      </c>
-      <c r="D75" t="s">
-        <v>230</v>
-      </c>
-      <c r="E75">
-        <v>56319000</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>56319000</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="U75" t="s">
-        <v>1604</v>
-      </c>
-      <c r="V75" t="s">
-        <v>40</v>
-      </c>
-      <c r="W75" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23">
-      <c r="A76" t="s">
-        <v>1577</v>
-      </c>
-      <c r="B76" t="s">
-        <v>40</v>
-      </c>
-      <c r="C76" t="s">
-        <v>127</v>
-      </c>
-      <c r="D76" t="s">
-        <v>231</v>
-      </c>
-      <c r="E76">
-        <v>3681000</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>3681000</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="U76" t="s">
-        <v>1604</v>
-      </c>
-      <c r="V76" t="s">
-        <v>40</v>
-      </c>
-      <c r="W76" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23">
-      <c r="A77" t="s">
-        <v>1578</v>
-      </c>
-      <c r="B77" t="s">
-        <v>41</v>
-      </c>
-      <c r="C77" t="s">
-        <v>127</v>
-      </c>
-      <c r="D77" t="s">
-        <v>1597</v>
-      </c>
-      <c r="E77">
-        <v>2970000</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>2970000</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="U77" t="s">
-        <v>1604</v>
-      </c>
-      <c r="V77" t="s">
-        <v>41</v>
-      </c>
-      <c r="W77" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23">
-      <c r="A78" t="s">
-        <v>1578</v>
-      </c>
-      <c r="B78" t="s">
-        <v>41</v>
-      </c>
-      <c r="C78" t="s">
-        <v>127</v>
-      </c>
-      <c r="D78" t="s">
-        <v>232</v>
-      </c>
-      <c r="E78">
-        <v>1680000</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <v>1680000</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="U78" t="s">
-        <v>1604</v>
-      </c>
-      <c r="V78" t="s">
-        <v>41</v>
-      </c>
-      <c r="W78" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23">
-      <c r="A79" t="s">
-        <v>1579</v>
-      </c>
-      <c r="B79" t="s">
-        <v>42</v>
-      </c>
-      <c r="C79" t="s">
-        <v>127</v>
-      </c>
-      <c r="D79" t="s">
-        <v>233</v>
-      </c>
-      <c r="E79">
-        <v>107800</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79">
-        <v>107800</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="U79" t="s">
-        <v>1604</v>
-      </c>
-      <c r="V79" t="s">
-        <v>42</v>
-      </c>
-      <c r="W79" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23">
-      <c r="A80" t="s">
-        <v>1580</v>
-      </c>
-      <c r="B80" t="s">
-        <v>43</v>
-      </c>
-      <c r="C80" t="s">
-        <v>127</v>
-      </c>
-      <c r="D80" t="s">
-        <v>234</v>
-      </c>
-      <c r="E80">
-        <v>414000</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <v>414000</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="U80" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V80" t="s">
-        <v>157</v>
-      </c>
-      <c r="W80" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23">
-      <c r="A81" t="s">
-        <v>1580</v>
-      </c>
-      <c r="B81" t="s">
-        <v>43</v>
-      </c>
-      <c r="C81" t="s">
-        <v>128</v>
-      </c>
-      <c r="D81" t="s">
-        <v>263</v>
-      </c>
-      <c r="E81">
-        <v>192996</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <v>192996</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="U81" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V81" t="s">
-        <v>157</v>
-      </c>
-      <c r="W81" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23">
-      <c r="A82" t="s">
-        <v>1581</v>
-      </c>
-      <c r="B82" t="s">
-        <v>939</v>
-      </c>
-      <c r="C82" t="s">
-        <v>127</v>
-      </c>
-      <c r="D82" t="s">
-        <v>1598</v>
-      </c>
-      <c r="E82">
-        <v>25200</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <v>25200</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="U82" t="s">
-        <v>1604</v>
-      </c>
-      <c r="V82" t="s">
-        <v>289</v>
-      </c>
-      <c r="W82" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23">
-      <c r="B83" t="s">
-        <v>939</v>
-      </c>
-      <c r="C83" t="s">
-        <v>127</v>
-      </c>
-      <c r="D83" t="s">
-        <v>1599</v>
-      </c>
-      <c r="E83">
-        <v>8400</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="G83">
-        <v>8400</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="U83" t="s">
-        <v>1604</v>
-      </c>
-      <c r="V83" t="s">
-        <v>289</v>
-      </c>
-      <c r="W83" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23">
-      <c r="A84" t="s">
-        <v>1582</v>
-      </c>
-      <c r="B84" t="s">
-        <v>44</v>
-      </c>
-      <c r="C84" t="s">
-        <v>127</v>
-      </c>
-      <c r="D84" t="s">
-        <v>1600</v>
-      </c>
-      <c r="E84">
-        <v>92800</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <v>92800</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="U84" t="s">
-        <v>1604</v>
-      </c>
-      <c r="V84" t="s">
-        <v>158</v>
-      </c>
-      <c r="W84" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23">
-      <c r="A85" t="s">
-        <v>1582</v>
-      </c>
-      <c r="B85" t="s">
-        <v>44</v>
-      </c>
-      <c r="C85" t="s">
-        <v>127</v>
-      </c>
-      <c r="D85" t="s">
-        <v>235</v>
-      </c>
-      <c r="E85">
-        <v>46400</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <v>46400</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="U85" t="s">
-        <v>1604</v>
-      </c>
-      <c r="V85" t="s">
-        <v>158</v>
-      </c>
-      <c r="W85" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23">
-      <c r="A86" t="s">
-        <v>1583</v>
-      </c>
-      <c r="B86" t="s">
-        <v>45</v>
-      </c>
-      <c r="C86" t="s">
-        <v>127</v>
-      </c>
-      <c r="D86" t="s">
-        <v>1601</v>
-      </c>
-      <c r="E86">
-        <v>350000</v>
-      </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="G86">
-        <v>350000</v>
-      </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
-      <c r="U86" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V86" t="s">
-        <v>159</v>
-      </c>
-      <c r="W86" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23">
-      <c r="A87" t="s">
-        <v>1583</v>
-      </c>
-      <c r="B87" t="s">
-        <v>45</v>
-      </c>
-      <c r="C87" t="s">
-        <v>127</v>
-      </c>
-      <c r="D87" t="s">
-        <v>236</v>
-      </c>
-      <c r="E87">
-        <v>700000</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87">
-        <v>700000</v>
-      </c>
-      <c r="H87">
-        <v>0</v>
-      </c>
-      <c r="U87" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V87" t="s">
-        <v>159</v>
-      </c>
-      <c r="W87" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23">
-      <c r="A88" t="s">
-        <v>1584</v>
-      </c>
-      <c r="B88" t="s">
-        <v>46</v>
-      </c>
-      <c r="C88" t="s">
-        <v>127</v>
-      </c>
-      <c r="D88" t="s">
-        <v>237</v>
-      </c>
-      <c r="E88">
-        <v>284986</v>
-      </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="G88">
-        <v>284986</v>
-      </c>
-      <c r="H88">
-        <v>0</v>
-      </c>
-      <c r="U88" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V88" t="s">
-        <v>46</v>
-      </c>
-      <c r="W88" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23">
-      <c r="A89" t="s">
-        <v>1584</v>
-      </c>
-      <c r="B89" t="s">
-        <v>46</v>
-      </c>
-      <c r="C89" t="s">
-        <v>128</v>
-      </c>
-      <c r="D89" t="s">
-        <v>264</v>
-      </c>
-      <c r="E89">
-        <v>132614</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <v>132614</v>
-      </c>
-      <c r="H89">
-        <v>0</v>
-      </c>
-      <c r="U89" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V89" t="s">
-        <v>46</v>
-      </c>
-      <c r="W89" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23">
-      <c r="A90" t="s">
-        <v>1585</v>
-      </c>
-      <c r="B90" t="s">
-        <v>47</v>
-      </c>
-      <c r="C90" t="s">
-        <v>127</v>
-      </c>
-      <c r="D90" t="s">
-        <v>238</v>
-      </c>
-      <c r="E90">
-        <v>345000</v>
-      </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90">
-        <v>345000</v>
-      </c>
-      <c r="H90">
-        <v>0</v>
-      </c>
-      <c r="U90" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V90" t="s">
-        <v>47</v>
-      </c>
-      <c r="W90" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23">
-      <c r="A91" t="s">
-        <v>1585</v>
-      </c>
-      <c r="B91" t="s">
-        <v>47</v>
-      </c>
-      <c r="C91" t="s">
-        <v>128</v>
-      </c>
-      <c r="D91" t="s">
-        <v>266</v>
-      </c>
-      <c r="E91">
-        <v>155000</v>
-      </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-      <c r="G91">
-        <v>155000</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="U91" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V91" t="s">
-        <v>47</v>
-      </c>
-      <c r="W91" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23">
-      <c r="A92" t="s">
-        <v>1586</v>
-      </c>
-      <c r="B92" t="s">
-        <v>48</v>
-      </c>
-      <c r="C92" t="s">
-        <v>127</v>
-      </c>
-      <c r="D92" t="s">
-        <v>239</v>
-      </c>
-      <c r="E92">
-        <v>309000</v>
-      </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-      <c r="G92">
-        <v>309000</v>
-      </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-      <c r="U92" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V92" t="s">
-        <v>160</v>
-      </c>
-      <c r="W92" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23">
-      <c r="A93" t="s">
-        <v>1586</v>
-      </c>
-      <c r="B93" t="s">
-        <v>48</v>
-      </c>
-      <c r="C93" t="s">
-        <v>128</v>
-      </c>
-      <c r="D93" t="s">
-        <v>265</v>
-      </c>
-      <c r="E93">
-        <v>141000</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <v>141000</v>
-      </c>
-      <c r="H93">
-        <v>0</v>
-      </c>
-      <c r="U93" t="s">
-        <v>1603</v>
-      </c>
-      <c r="V93" t="s">
-        <v>160</v>
-      </c>
-      <c r="W93" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="94" spans="1:23">
-      <c r="B94" t="s">
-        <v>11</v>
-      </c>
-      <c r="C94" t="s">
-        <v>127</v>
-      </c>
-      <c r="D94" t="s">
-        <v>50</v>
-      </c>
-      <c r="E94">
-        <v>1801472.7</v>
-      </c>
-      <c r="F94">
-        <v>1935012.754443571</v>
-      </c>
-      <c r="G94">
-        <v>3250.12754443544</v>
-      </c>
-      <c r="H94">
-        <v>107.2193870942727</v>
-      </c>
-      <c r="U94" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V94" t="s">
-        <v>129</v>
-      </c>
-      <c r="W94" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23">
-      <c r="B95" t="s">
-        <v>11</v>
-      </c>
-      <c r="C95" t="s">
-        <v>127</v>
-      </c>
-      <c r="D95" t="s">
-        <v>51</v>
-      </c>
-      <c r="E95">
-        <v>524400</v>
-      </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="G95">
-        <v>591340.4420987531</v>
-      </c>
-      <c r="H95">
-        <v>0</v>
-      </c>
-      <c r="U95" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V95" t="s">
-        <v>129</v>
-      </c>
-      <c r="W95" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23">
-      <c r="B96" t="s">
-        <v>11</v>
-      </c>
-      <c r="C96" t="s">
-        <v>127</v>
-      </c>
-      <c r="D96" t="s">
-        <v>52</v>
-      </c>
-      <c r="E96">
-        <v>5225812</v>
-      </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="G96">
-        <v>5892894.695661649</v>
-      </c>
-      <c r="H96">
-        <v>0</v>
-      </c>
-      <c r="U96" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V96" t="s">
-        <v>129</v>
-      </c>
-      <c r="W96" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="97" spans="2:23">
-      <c r="B97" t="s">
-        <v>12</v>
-      </c>
-      <c r="C97" t="s">
-        <v>127</v>
-      </c>
-      <c r="D97" t="s">
-        <v>53</v>
-      </c>
-      <c r="E97">
-        <v>13278264.4</v>
-      </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-      <c r="G97">
-        <v>14973254.65408111</v>
-      </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-      <c r="U97" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V97" t="s">
-        <v>130</v>
-      </c>
-      <c r="W97" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="98" spans="2:23">
-      <c r="B98" t="s">
-        <v>13</v>
-      </c>
-      <c r="C98" t="s">
-        <v>127</v>
-      </c>
-      <c r="D98" t="s">
-        <v>54</v>
-      </c>
-      <c r="E98">
-        <v>1544762</v>
-      </c>
-      <c r="F98">
-        <v>0</v>
-      </c>
-      <c r="G98">
-        <v>1741953.17318336</v>
-      </c>
-      <c r="H98">
-        <v>0</v>
-      </c>
-      <c r="U98" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V98" t="s">
-        <v>131</v>
-      </c>
-      <c r="W98" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="99" spans="2:23">
-      <c r="B99" t="s">
-        <v>14</v>
-      </c>
-      <c r="C99" t="s">
-        <v>127</v>
-      </c>
-      <c r="D99" t="s">
-        <v>55</v>
-      </c>
-      <c r="E99">
-        <v>1411014.44</v>
-      </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99">
-        <v>1591132.537676057</v>
-      </c>
-      <c r="H99">
-        <v>0</v>
-      </c>
-      <c r="U99" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V99" t="s">
-        <v>132</v>
-      </c>
-      <c r="W99" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="100" spans="2:23">
-      <c r="B100" t="s">
-        <v>14</v>
-      </c>
-      <c r="C100" t="s">
-        <v>127</v>
-      </c>
-      <c r="D100" t="s">
-        <v>56</v>
-      </c>
-      <c r="E100">
-        <v>2245000</v>
-      </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-      <c r="G100">
-        <v>2531577.598229787</v>
-      </c>
-      <c r="H100">
-        <v>0</v>
-      </c>
-      <c r="U100" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V100" t="s">
-        <v>132</v>
-      </c>
-      <c r="W100" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="101" spans="2:23">
-      <c r="B101" t="s">
-        <v>14</v>
-      </c>
-      <c r="C101" t="s">
-        <v>127</v>
-      </c>
-      <c r="D101" t="s">
-        <v>57</v>
-      </c>
-      <c r="E101">
-        <v>2752000</v>
-      </c>
-      <c r="F101">
-        <v>0</v>
-      </c>
-      <c r="G101">
-        <v>3103296.904377895</v>
-      </c>
-      <c r="H101">
-        <v>0</v>
-      </c>
-      <c r="U101" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V101" t="s">
-        <v>132</v>
-      </c>
-      <c r="W101" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="102" spans="2:23">
-      <c r="B102" t="s">
-        <v>15</v>
-      </c>
-      <c r="C102" t="s">
-        <v>127</v>
-      </c>
-      <c r="D102" t="s">
-        <v>58</v>
-      </c>
-      <c r="E102">
-        <v>750000</v>
-      </c>
-      <c r="F102">
-        <v>0</v>
-      </c>
-      <c r="G102">
-        <v>845738.6185622897</v>
-      </c>
-      <c r="H102">
-        <v>0</v>
-      </c>
-      <c r="U102" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V102" t="s">
-        <v>133</v>
-      </c>
-      <c r="W102" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="103" spans="2:23">
-      <c r="B103" t="s">
-        <v>16</v>
-      </c>
-      <c r="C103" t="s">
-        <v>127</v>
-      </c>
-      <c r="D103" t="s">
-        <v>59</v>
-      </c>
-      <c r="E103">
-        <v>490000</v>
-      </c>
-      <c r="F103">
-        <v>0</v>
-      </c>
-      <c r="G103">
-        <v>552549.2307940293</v>
-      </c>
-      <c r="H103">
-        <v>0</v>
-      </c>
-      <c r="U103" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V103" t="s">
-        <v>134</v>
-      </c>
-      <c r="W103" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="104" spans="2:23">
-      <c r="B104" t="s">
-        <v>16</v>
-      </c>
-      <c r="C104" t="s">
-        <v>127</v>
-      </c>
-      <c r="D104" t="s">
-        <v>60</v>
-      </c>
-      <c r="E104">
-        <v>831400</v>
-      </c>
-      <c r="F104">
-        <v>0</v>
-      </c>
-      <c r="G104">
-        <v>937529.4499635836</v>
-      </c>
-      <c r="H104">
-        <v>0</v>
-      </c>
-      <c r="U104" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V104" t="s">
-        <v>134</v>
-      </c>
-      <c r="W104" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="105" spans="2:23">
-      <c r="B105" t="s">
-        <v>17</v>
-      </c>
-      <c r="C105" t="s">
-        <v>127</v>
-      </c>
-      <c r="D105" t="s">
-        <v>61</v>
-      </c>
-      <c r="E105">
-        <v>207000</v>
-      </c>
-      <c r="F105">
-        <v>0</v>
-      </c>
-      <c r="G105">
-        <v>233423.858723192</v>
-      </c>
-      <c r="H105">
-        <v>0</v>
-      </c>
-      <c r="U105" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V105" t="s">
-        <v>135</v>
-      </c>
-      <c r="W105" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="106" spans="2:23">
-      <c r="B106" t="s">
-        <v>18</v>
-      </c>
-      <c r="C106" t="s">
-        <v>127</v>
-      </c>
-      <c r="D106" t="s">
-        <v>62</v>
-      </c>
-      <c r="E106">
-        <v>97197.71000000001</v>
-      </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
-      <c r="G106">
-        <v>109605.1426437574</v>
-      </c>
-      <c r="H106">
-        <v>0</v>
-      </c>
-      <c r="U106" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V106" t="s">
-        <v>136</v>
-      </c>
-      <c r="W106" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="107" spans="2:23">
-      <c r="B107" t="s">
-        <v>19</v>
-      </c>
-      <c r="C107" t="s">
-        <v>127</v>
-      </c>
-      <c r="D107" t="s">
-        <v>63</v>
-      </c>
-      <c r="E107">
-        <v>138500</v>
-      </c>
-      <c r="F107">
-        <v>0</v>
-      </c>
-      <c r="G107">
-        <v>156179.7315611695</v>
-      </c>
-      <c r="H107">
-        <v>0</v>
-      </c>
-      <c r="U107" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V107" t="s">
-        <v>137</v>
-      </c>
-      <c r="W107" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="108" spans="2:23">
-      <c r="B108" t="s">
-        <v>20</v>
-      </c>
-      <c r="C108" t="s">
-        <v>127</v>
-      </c>
-      <c r="D108" t="s">
-        <v>64</v>
-      </c>
-      <c r="E108">
-        <v>207000</v>
-      </c>
-      <c r="F108">
-        <v>0</v>
-      </c>
-      <c r="G108">
-        <v>233423.858723192</v>
-      </c>
-      <c r="H108">
-        <v>0</v>
-      </c>
-      <c r="U108" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V108" t="s">
-        <v>138</v>
-      </c>
-      <c r="W108" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="109" spans="2:23">
-      <c r="B109" t="s">
-        <v>21</v>
-      </c>
-      <c r="C109" t="s">
-        <v>127</v>
-      </c>
-      <c r="D109" t="s">
-        <v>65</v>
-      </c>
-      <c r="E109">
-        <v>208000</v>
-      </c>
-      <c r="F109">
-        <v>0</v>
-      </c>
-      <c r="G109">
-        <v>234551.5102146084</v>
-      </c>
-      <c r="H109">
-        <v>0</v>
-      </c>
-      <c r="U109" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V109" t="s">
-        <v>139</v>
-      </c>
-      <c r="W109" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="110" spans="2:23">
-      <c r="B110" t="s">
-        <v>22</v>
-      </c>
-      <c r="C110" t="s">
-        <v>127</v>
-      </c>
-      <c r="D110" t="s">
-        <v>66</v>
-      </c>
-      <c r="E110">
-        <v>400000</v>
-      </c>
-      <c r="F110">
-        <v>0</v>
-      </c>
-      <c r="G110">
-        <v>451060.5965665545</v>
-      </c>
-      <c r="H110">
-        <v>0</v>
-      </c>
-      <c r="U110" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V110" t="s">
-        <v>140</v>
-      </c>
-      <c r="W110" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="111" spans="2:23">
-      <c r="B111" t="s">
-        <v>23</v>
-      </c>
-      <c r="C111" t="s">
-        <v>127</v>
-      </c>
-      <c r="D111" t="s">
-        <v>67</v>
-      </c>
-      <c r="E111">
-        <v>281339.24</v>
-      </c>
-      <c r="F111">
-        <v>0</v>
-      </c>
-      <c r="G111">
-        <v>317252.6135799526</v>
-      </c>
-      <c r="H111">
-        <v>0</v>
-      </c>
-      <c r="U111" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V111" t="s">
-        <v>141</v>
-      </c>
-      <c r="W111" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="112" spans="2:23">
-      <c r="B112" t="s">
-        <v>24</v>
-      </c>
-      <c r="C112" t="s">
-        <v>127</v>
-      </c>
-      <c r="D112" t="s">
-        <v>68</v>
-      </c>
-      <c r="E112">
-        <v>81587.97</v>
-      </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
-      <c r="G112">
-        <v>92002.79605213538</v>
-      </c>
-      <c r="H112">
-        <v>0</v>
-      </c>
-      <c r="U112" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V112" t="s">
-        <v>142</v>
-      </c>
-      <c r="W112" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="113" spans="2:23">
-      <c r="B113" t="s">
-        <v>25</v>
-      </c>
-      <c r="C113" t="s">
-        <v>127</v>
-      </c>
-      <c r="D113" t="s">
-        <v>69</v>
-      </c>
-      <c r="E113">
-        <v>881417.6899999999</v>
-      </c>
-      <c r="F113">
-        <v>0</v>
-      </c>
-      <c r="G113">
-        <v>993931.972689286</v>
-      </c>
-      <c r="H113">
-        <v>0</v>
-      </c>
-      <c r="U113" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V113" t="s">
-        <v>143</v>
-      </c>
-      <c r="W113" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="114" spans="2:23">
-      <c r="B114" t="s">
-        <v>26</v>
-      </c>
-      <c r="C114" t="s">
-        <v>127</v>
-      </c>
-      <c r="D114" t="s">
-        <v>70</v>
-      </c>
-      <c r="E114">
-        <v>66000</v>
-      </c>
-      <c r="F114">
-        <v>0</v>
-      </c>
-      <c r="G114">
-        <v>74424.99843348149</v>
-      </c>
-      <c r="H114">
-        <v>0</v>
-      </c>
-      <c r="U114" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V114" t="s">
-        <v>144</v>
-      </c>
-      <c r="W114" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="115" spans="2:23">
-      <c r="B115" t="s">
-        <v>26</v>
-      </c>
-      <c r="C115" t="s">
-        <v>127</v>
-      </c>
-      <c r="D115" t="s">
-        <v>71</v>
-      </c>
-      <c r="E115">
-        <v>502796.02</v>
-      </c>
-      <c r="F115">
-        <v>0</v>
-      </c>
-      <c r="G115">
-        <v>566978.6818312232</v>
-      </c>
-      <c r="H115">
-        <v>0</v>
-      </c>
-      <c r="U115" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V115" t="s">
-        <v>144</v>
-      </c>
-      <c r="W115" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="116" spans="2:23">
-      <c r="B116" t="s">
-        <v>27</v>
-      </c>
-      <c r="C116" t="s">
-        <v>127</v>
-      </c>
-      <c r="D116" t="s">
-        <v>72</v>
-      </c>
-      <c r="E116">
-        <v>207000</v>
-      </c>
-      <c r="F116">
-        <v>0</v>
-      </c>
-      <c r="G116">
-        <v>233423.858723192</v>
-      </c>
-      <c r="H116">
-        <v>0</v>
-      </c>
-      <c r="U116" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V116" t="s">
-        <v>145</v>
-      </c>
-      <c r="W116" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="117" spans="2:23">
-      <c r="B117" t="s">
-        <v>28</v>
-      </c>
-      <c r="C117" t="s">
-        <v>127</v>
-      </c>
-      <c r="D117" t="s">
-        <v>73</v>
-      </c>
-      <c r="E117">
-        <v>72167.81</v>
-      </c>
-      <c r="F117">
-        <v>0</v>
-      </c>
-      <c r="G117">
-        <v>81380.1385787544</v>
-      </c>
-      <c r="H117">
-        <v>0</v>
-      </c>
-      <c r="U117" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V117" t="s">
-        <v>146</v>
-      </c>
-      <c r="W117" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="118" spans="2:23">
-      <c r="B118" t="s">
-        <v>29</v>
-      </c>
-      <c r="C118" t="s">
-        <v>127</v>
-      </c>
-      <c r="D118" t="s">
-        <v>74</v>
-      </c>
-      <c r="E118">
-        <v>9098.42</v>
-      </c>
-      <c r="F118">
-        <v>0</v>
-      </c>
-      <c r="G118">
-        <v>10259.84688253268</v>
-      </c>
-      <c r="H118">
-        <v>0</v>
-      </c>
-      <c r="U118" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V118" t="s">
-        <v>147</v>
-      </c>
-      <c r="W118" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="119" spans="2:23">
-      <c r="B119" t="s">
-        <v>30</v>
-      </c>
-      <c r="C119" t="s">
-        <v>127</v>
-      </c>
-      <c r="D119" t="s">
-        <v>75</v>
-      </c>
-      <c r="E119">
-        <v>207000</v>
-      </c>
-      <c r="F119">
-        <v>0</v>
-      </c>
-      <c r="G119">
-        <v>233423.858723192</v>
-      </c>
-      <c r="H119">
-        <v>0</v>
-      </c>
-      <c r="U119" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V119" t="s">
-        <v>148</v>
-      </c>
-      <c r="W119" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="120" spans="2:23">
-      <c r="B120" t="s">
-        <v>31</v>
-      </c>
-      <c r="C120" t="s">
-        <v>127</v>
-      </c>
-      <c r="D120" t="s">
-        <v>76</v>
-      </c>
-      <c r="E120">
-        <v>102000</v>
-      </c>
-      <c r="F120">
-        <v>0</v>
-      </c>
-      <c r="G120">
-        <v>115020.4521244714</v>
-      </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-      <c r="U120" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V120" t="s">
-        <v>149</v>
-      </c>
-      <c r="W120" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="121" spans="2:23">
-      <c r="B121" t="s">
-        <v>32</v>
-      </c>
-      <c r="C121" t="s">
-        <v>127</v>
-      </c>
-      <c r="D121" t="s">
-        <v>77</v>
-      </c>
-      <c r="E121">
-        <v>345000</v>
-      </c>
-      <c r="F121">
-        <v>0</v>
-      </c>
-      <c r="G121">
-        <v>389039.7645386533</v>
-      </c>
-      <c r="H121">
-        <v>0</v>
-      </c>
-      <c r="U121" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V121" t="s">
-        <v>150</v>
-      </c>
-      <c r="W121" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="122" spans="2:23">
-      <c r="B122" t="s">
-        <v>33</v>
-      </c>
-      <c r="C122" t="s">
-        <v>127</v>
-      </c>
-      <c r="D122" t="s">
-        <v>78</v>
-      </c>
-      <c r="E122">
-        <v>430000</v>
-      </c>
-      <c r="F122">
-        <v>0</v>
-      </c>
-      <c r="G122">
-        <v>484890.1413090461</v>
-      </c>
-      <c r="H122">
-        <v>0</v>
-      </c>
-      <c r="U122" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V122" t="s">
-        <v>151</v>
-      </c>
-      <c r="W122" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="123" spans="2:23">
-      <c r="B123" t="s">
-        <v>34</v>
-      </c>
-      <c r="C123" t="s">
-        <v>127</v>
-      </c>
-      <c r="D123" t="s">
-        <v>79</v>
-      </c>
-      <c r="E123">
-        <v>66102.3</v>
-      </c>
-      <c r="F123">
-        <v>0</v>
-      </c>
-      <c r="G123">
-        <v>74540.3571810534</v>
-      </c>
-      <c r="H123">
-        <v>0</v>
-      </c>
-      <c r="U123" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V123" t="s">
-        <v>152</v>
-      </c>
-      <c r="W123" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="124" spans="2:23">
-      <c r="B124" t="s">
-        <v>35</v>
-      </c>
-      <c r="C124" t="s">
-        <v>127</v>
-      </c>
-      <c r="D124" t="s">
-        <v>80</v>
-      </c>
-      <c r="E124">
-        <v>3253.19</v>
-      </c>
-      <c r="F124">
-        <v>0</v>
-      </c>
-      <c r="G124">
-        <v>3668.464555360874</v>
-      </c>
-      <c r="H124">
-        <v>0</v>
-      </c>
-      <c r="U124" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V124" t="s">
-        <v>153</v>
-      </c>
-      <c r="W124" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="125" spans="2:23">
-      <c r="B125" t="s">
-        <v>36</v>
-      </c>
-      <c r="C125" t="s">
-        <v>127</v>
-      </c>
-      <c r="D125" t="s">
-        <v>81</v>
-      </c>
-      <c r="E125">
-        <v>207000</v>
-      </c>
-      <c r="F125">
-        <v>0</v>
-      </c>
-      <c r="G125">
-        <v>233423.858723192</v>
-      </c>
-      <c r="H125">
-        <v>0</v>
-      </c>
-      <c r="U125" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V125" t="s">
-        <v>154</v>
-      </c>
-      <c r="W125" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="126" spans="2:23">
-      <c r="B126" t="s">
-        <v>37</v>
-      </c>
-      <c r="C126" t="s">
-        <v>127</v>
-      </c>
-      <c r="D126" t="s">
-        <v>82</v>
-      </c>
-      <c r="E126">
-        <v>408375.1</v>
-      </c>
-      <c r="F126">
-        <v>0</v>
-      </c>
-      <c r="G126">
-        <v>460504.7905723159</v>
-      </c>
-      <c r="H126">
-        <v>0</v>
-      </c>
-      <c r="U126" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V126" t="s">
-        <v>155</v>
-      </c>
-      <c r="W126" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="127" spans="2:23">
-      <c r="B127" t="s">
-        <v>38</v>
-      </c>
-      <c r="C127" t="s">
-        <v>127</v>
-      </c>
-      <c r="D127" t="s">
-        <v>83</v>
-      </c>
-      <c r="E127">
-        <v>207000</v>
-      </c>
-      <c r="F127">
-        <v>0</v>
-      </c>
-      <c r="G127">
-        <v>233423.858723192</v>
-      </c>
-      <c r="H127">
-        <v>0</v>
-      </c>
-      <c r="U127" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V127" t="s">
-        <v>156</v>
-      </c>
-      <c r="W127" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="128" spans="2:23">
-      <c r="B128" t="s">
-        <v>39</v>
-      </c>
-      <c r="C128" t="s">
-        <v>127</v>
-      </c>
-      <c r="D128" t="s">
-        <v>84</v>
-      </c>
-      <c r="E128">
-        <v>15392427.09</v>
-      </c>
-      <c r="F128">
-        <v>0</v>
-      </c>
-      <c r="G128">
-        <v>17357293.36455649</v>
-      </c>
-      <c r="H128">
-        <v>0</v>
-      </c>
-      <c r="U128" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V128" t="s">
-        <v>39</v>
-      </c>
-      <c r="W128" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="129" spans="2:23">
-      <c r="B129" t="s">
-        <v>39</v>
-      </c>
-      <c r="C129" t="s">
-        <v>127</v>
-      </c>
-      <c r="D129" t="s">
-        <v>85</v>
-      </c>
-      <c r="E129">
-        <v>3688000</v>
-      </c>
-      <c r="F129">
-        <v>0</v>
-      </c>
-      <c r="G129">
-        <v>4158778.700343633</v>
-      </c>
-      <c r="H129">
-        <v>0</v>
-      </c>
-      <c r="U129" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V129" t="s">
-        <v>39</v>
-      </c>
-      <c r="W129" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="130" spans="2:23">
-      <c r="B130" t="s">
-        <v>39</v>
-      </c>
-      <c r="C130" t="s">
-        <v>127</v>
-      </c>
-      <c r="D130" t="s">
-        <v>86</v>
-      </c>
-      <c r="E130">
-        <v>10000000</v>
-      </c>
-      <c r="F130">
-        <v>0</v>
-      </c>
-      <c r="G130">
-        <v>11276514.91416386</v>
-      </c>
-      <c r="H130">
-        <v>0</v>
-      </c>
-      <c r="U130" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V130" t="s">
-        <v>39</v>
-      </c>
-      <c r="W130" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="131" spans="2:23">
-      <c r="B131" t="s">
-        <v>40</v>
-      </c>
-      <c r="C131" t="s">
-        <v>127</v>
-      </c>
-      <c r="D131" t="s">
-        <v>87</v>
-      </c>
-      <c r="E131">
-        <v>16863198</v>
-      </c>
-      <c r="F131">
-        <v>0</v>
-      </c>
-      <c r="G131">
-        <v>19015810.37474982</v>
-      </c>
-      <c r="H131">
-        <v>0</v>
-      </c>
-      <c r="U131" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V131" t="s">
-        <v>40</v>
-      </c>
-      <c r="W131" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="132" spans="2:23">
-      <c r="B132" t="s">
-        <v>40</v>
-      </c>
-      <c r="C132" t="s">
-        <v>127</v>
-      </c>
-      <c r="D132" t="s">
-        <v>88</v>
-      </c>
-      <c r="E132">
-        <v>3681000</v>
-      </c>
-      <c r="F132">
-        <v>0</v>
-      </c>
-      <c r="G132">
-        <v>4150885.139903718</v>
-      </c>
-      <c r="H132">
-        <v>0</v>
-      </c>
-      <c r="U132" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V132" t="s">
-        <v>40</v>
-      </c>
-      <c r="W132" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="133" spans="2:23">
-      <c r="B133" t="s">
-        <v>41</v>
-      </c>
-      <c r="C133" t="s">
-        <v>127</v>
-      </c>
-      <c r="D133" t="s">
-        <v>89</v>
-      </c>
-      <c r="E133">
-        <v>625930.5</v>
-      </c>
-      <c r="F133">
-        <v>0</v>
-      </c>
-      <c r="G133">
-        <v>705831.4618480044</v>
-      </c>
-      <c r="H133">
-        <v>0</v>
-      </c>
-      <c r="U133" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V133" t="s">
-        <v>41</v>
-      </c>
-      <c r="W133" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="134" spans="2:23">
-      <c r="B134" t="s">
-        <v>42</v>
-      </c>
-      <c r="C134" t="s">
-        <v>127</v>
-      </c>
-      <c r="D134" t="s">
-        <v>90</v>
-      </c>
-      <c r="E134">
-        <v>107800</v>
-      </c>
-      <c r="F134">
-        <v>0</v>
-      </c>
-      <c r="G134">
-        <v>121560.8307746864</v>
-      </c>
-      <c r="H134">
-        <v>0</v>
-      </c>
-      <c r="U134" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V134" t="s">
-        <v>42</v>
-      </c>
-      <c r="W134" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="135" spans="2:23">
-      <c r="B135" t="s">
-        <v>43</v>
-      </c>
-      <c r="C135" t="s">
-        <v>127</v>
-      </c>
-      <c r="D135" t="s">
-        <v>91</v>
-      </c>
-      <c r="E135">
-        <v>414000</v>
-      </c>
-      <c r="F135">
-        <v>0</v>
-      </c>
-      <c r="G135">
-        <v>466847.717446384</v>
-      </c>
-      <c r="H135">
-        <v>0</v>
-      </c>
-      <c r="U135" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V135" t="s">
-        <v>157</v>
-      </c>
-      <c r="W135" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="136" spans="2:23">
-      <c r="B136" t="s">
-        <v>44</v>
-      </c>
-      <c r="C136" t="s">
-        <v>127</v>
-      </c>
-      <c r="D136" t="s">
-        <v>92</v>
-      </c>
-      <c r="E136">
-        <v>46400</v>
-      </c>
-      <c r="F136">
-        <v>0</v>
-      </c>
-      <c r="G136">
-        <v>52323.02920172032</v>
-      </c>
-      <c r="H136">
-        <v>0</v>
-      </c>
-      <c r="U136" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V136" t="s">
-        <v>158</v>
-      </c>
-      <c r="W136" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="137" spans="2:23">
-      <c r="B137" t="s">
-        <v>45</v>
-      </c>
-      <c r="C137" t="s">
-        <v>127</v>
-      </c>
-      <c r="D137" t="s">
-        <v>93</v>
-      </c>
-      <c r="E137">
-        <v>343031.28</v>
-      </c>
-      <c r="F137">
-        <v>0</v>
-      </c>
-      <c r="G137">
-        <v>386819.734494472</v>
-      </c>
-      <c r="H137">
-        <v>0</v>
-      </c>
-      <c r="U137" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V137" t="s">
-        <v>159</v>
-      </c>
-      <c r="W137" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="138" spans="2:23">
-      <c r="B138" t="s">
-        <v>46</v>
-      </c>
-      <c r="C138" t="s">
-        <v>127</v>
-      </c>
-      <c r="D138" t="s">
-        <v>94</v>
-      </c>
-      <c r="E138">
-        <v>284986</v>
-      </c>
-      <c r="F138">
-        <v>0</v>
-      </c>
-      <c r="G138">
-        <v>321364.8879327903</v>
-      </c>
-      <c r="H138">
-        <v>0</v>
-      </c>
-      <c r="U138" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V138" t="s">
-        <v>46</v>
-      </c>
-      <c r="W138" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="139" spans="2:23">
-      <c r="B139" t="s">
-        <v>47</v>
-      </c>
-      <c r="C139" t="s">
-        <v>127</v>
-      </c>
-      <c r="D139" t="s">
-        <v>95</v>
-      </c>
-      <c r="E139">
-        <v>345000</v>
-      </c>
-      <c r="F139">
-        <v>0</v>
-      </c>
-      <c r="G139">
-        <v>389039.7645386533</v>
-      </c>
-      <c r="H139">
-        <v>0</v>
-      </c>
-      <c r="U139" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V139" t="s">
-        <v>47</v>
-      </c>
-      <c r="W139" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="140" spans="2:23">
-      <c r="B140" t="s">
-        <v>48</v>
-      </c>
-      <c r="C140" t="s">
-        <v>127</v>
-      </c>
-      <c r="D140" t="s">
-        <v>96</v>
-      </c>
-      <c r="E140">
-        <v>309000</v>
-      </c>
-      <c r="F140">
-        <v>0</v>
-      </c>
-      <c r="G140">
-        <v>348444.3108476634</v>
-      </c>
-      <c r="H140">
-        <v>0</v>
-      </c>
-      <c r="U140" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V140" t="s">
-        <v>160</v>
-      </c>
-      <c r="W140" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="141" spans="2:23">
-      <c r="B141" t="s">
-        <v>11</v>
-      </c>
-      <c r="C141" t="s">
-        <v>128</v>
-      </c>
-      <c r="D141" t="s">
-        <v>97</v>
-      </c>
-      <c r="E141">
-        <v>608000</v>
-      </c>
-      <c r="F141">
-        <v>0</v>
-      </c>
-      <c r="G141">
-        <v>685612.1067811629</v>
-      </c>
-      <c r="H141">
-        <v>0</v>
-      </c>
-      <c r="U141" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V141" t="s">
-        <v>129</v>
-      </c>
-      <c r="W141" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="142" spans="2:23">
-      <c r="B142" t="s">
-        <v>11</v>
-      </c>
-      <c r="C142" t="s">
-        <v>128</v>
-      </c>
-      <c r="D142" t="s">
-        <v>98</v>
-      </c>
-      <c r="E142">
-        <v>175000</v>
-      </c>
-      <c r="F142">
-        <v>0</v>
-      </c>
-      <c r="G142">
-        <v>197339.0109978676</v>
-      </c>
-      <c r="H142">
-        <v>0</v>
-      </c>
-      <c r="U142" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V142" t="s">
-        <v>129</v>
-      </c>
-      <c r="W142" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="143" spans="2:23">
-      <c r="B143" t="s">
-        <v>11</v>
-      </c>
-      <c r="C143" t="s">
-        <v>128</v>
-      </c>
-      <c r="D143" t="s">
-        <v>99</v>
-      </c>
-      <c r="E143">
-        <v>750000</v>
-      </c>
-      <c r="F143">
-        <v>0</v>
-      </c>
-      <c r="G143">
-        <v>845738.6185622897</v>
-      </c>
-      <c r="H143">
-        <v>0</v>
-      </c>
-      <c r="U143" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V143" t="s">
-        <v>129</v>
-      </c>
-      <c r="W143" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="144" spans="2:23">
-      <c r="B144" t="s">
-        <v>12</v>
-      </c>
-      <c r="C144" t="s">
-        <v>128</v>
-      </c>
-      <c r="D144" t="s">
-        <v>100</v>
-      </c>
-      <c r="E144">
-        <v>5200000</v>
-      </c>
-      <c r="F144">
-        <v>0</v>
-      </c>
-      <c r="G144">
-        <v>5863787.755365209</v>
-      </c>
-      <c r="H144">
-        <v>0</v>
-      </c>
-      <c r="U144" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V144" t="s">
-        <v>130</v>
-      </c>
-      <c r="W144" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="145" spans="2:23">
-      <c r="B145" t="s">
-        <v>13</v>
-      </c>
-      <c r="C145" t="s">
-        <v>128</v>
-      </c>
-      <c r="D145" t="s">
-        <v>101</v>
-      </c>
-      <c r="E145">
-        <v>695280</v>
-      </c>
-      <c r="F145">
-        <v>0</v>
-      </c>
-      <c r="G145">
-        <v>784033.5289519851</v>
-      </c>
-      <c r="H145">
-        <v>0</v>
-      </c>
-      <c r="U145" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V145" t="s">
-        <v>131</v>
-      </c>
-      <c r="W145" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="146" spans="2:23">
-      <c r="B146" t="s">
-        <v>14</v>
-      </c>
-      <c r="C146" t="s">
-        <v>128</v>
-      </c>
-      <c r="D146" t="s">
-        <v>102</v>
-      </c>
-      <c r="E146">
-        <v>783000</v>
-      </c>
-      <c r="F146">
-        <v>0</v>
-      </c>
-      <c r="G146">
-        <v>882951.1177790305</v>
-      </c>
-      <c r="H146">
-        <v>0</v>
-      </c>
-      <c r="U146" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V146" t="s">
-        <v>132</v>
-      </c>
-      <c r="W146" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="147" spans="2:23">
-      <c r="B147" t="s">
-        <v>14</v>
-      </c>
-      <c r="C147" t="s">
-        <v>128</v>
-      </c>
-      <c r="D147" t="s">
-        <v>103</v>
-      </c>
-      <c r="E147">
-        <v>840153.99</v>
-      </c>
-      <c r="F147">
-        <v>0</v>
-      </c>
-      <c r="G147">
-        <v>947400.8998429277</v>
-      </c>
-      <c r="H147">
-        <v>0</v>
-      </c>
-      <c r="U147" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V147" t="s">
-        <v>132</v>
-      </c>
-      <c r="W147" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="148" spans="2:23">
-      <c r="B148" t="s">
-        <v>16</v>
-      </c>
-      <c r="C148" t="s">
-        <v>128</v>
-      </c>
-      <c r="D148" t="s">
-        <v>104</v>
-      </c>
-      <c r="E148">
-        <v>184000</v>
-      </c>
-      <c r="F148">
-        <v>0</v>
-      </c>
-      <c r="G148">
-        <v>207487.8744206151</v>
-      </c>
-      <c r="H148">
-        <v>0</v>
-      </c>
-      <c r="U148" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V148" t="s">
-        <v>134</v>
-      </c>
-      <c r="W148" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="149" spans="2:23">
-      <c r="B149" t="s">
-        <v>16</v>
-      </c>
-      <c r="C149" t="s">
-        <v>128</v>
-      </c>
-      <c r="D149" t="s">
-        <v>105</v>
-      </c>
-      <c r="E149">
-        <v>312420</v>
-      </c>
-      <c r="F149">
-        <v>0</v>
-      </c>
-      <c r="G149">
-        <v>352300.8789483074</v>
-      </c>
-      <c r="H149">
-        <v>0</v>
-      </c>
-      <c r="U149" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V149" t="s">
-        <v>134</v>
-      </c>
-      <c r="W149" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="150" spans="2:23">
-      <c r="B150" t="s">
-        <v>19</v>
-      </c>
-      <c r="C150" t="s">
-        <v>128</v>
-      </c>
-      <c r="D150" t="s">
-        <v>106</v>
-      </c>
-      <c r="E150">
-        <v>61500</v>
-      </c>
-      <c r="F150">
-        <v>0</v>
-      </c>
-      <c r="G150">
-        <v>69350.56672210776</v>
-      </c>
-      <c r="H150">
-        <v>0</v>
-      </c>
-      <c r="U150" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V150" t="s">
-        <v>137</v>
-      </c>
-      <c r="W150" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="151" spans="2:23">
-      <c r="B151" t="s">
-        <v>20</v>
-      </c>
-      <c r="C151" t="s">
-        <v>128</v>
-      </c>
-      <c r="D151" t="s">
-        <v>107</v>
-      </c>
-      <c r="E151">
-        <v>93000</v>
-      </c>
-      <c r="F151">
-        <v>0</v>
-      </c>
-      <c r="G151">
-        <v>104871.5887017239</v>
-      </c>
-      <c r="H151">
-        <v>0</v>
-      </c>
-      <c r="U151" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V151" t="s">
-        <v>138</v>
-      </c>
-      <c r="W151" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="152" spans="2:23">
-      <c r="B152" t="s">
-        <v>21</v>
-      </c>
-      <c r="C152" t="s">
-        <v>128</v>
-      </c>
-      <c r="D152" t="s">
-        <v>108</v>
-      </c>
-      <c r="E152">
-        <v>92000</v>
-      </c>
-      <c r="F152">
-        <v>0</v>
-      </c>
-      <c r="G152">
-        <v>103743.9372103075</v>
-      </c>
-      <c r="H152">
-        <v>0</v>
-      </c>
-      <c r="U152" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V152" t="s">
-        <v>139</v>
-      </c>
-      <c r="W152" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="153" spans="2:23">
-      <c r="B153" t="s">
-        <v>24</v>
-      </c>
-      <c r="C153" t="s">
-        <v>128</v>
-      </c>
-      <c r="D153" t="s">
-        <v>109</v>
-      </c>
-      <c r="E153">
-        <v>41880</v>
-      </c>
-      <c r="F153">
-        <v>0</v>
-      </c>
-      <c r="G153">
-        <v>47226.04446051826</v>
-      </c>
-      <c r="H153">
-        <v>0</v>
-      </c>
-      <c r="U153" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V153" t="s">
-        <v>142</v>
-      </c>
-      <c r="W153" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="154" spans="2:23">
-      <c r="B154" t="s">
-        <v>25</v>
-      </c>
-      <c r="C154" t="s">
-        <v>128</v>
-      </c>
-      <c r="D154" t="s">
-        <v>110</v>
-      </c>
-      <c r="E154">
-        <v>368544</v>
-      </c>
-      <c r="F154">
-        <v>0</v>
-      </c>
-      <c r="G154">
-        <v>415589.1912525607</v>
-      </c>
-      <c r="H154">
-        <v>0</v>
-      </c>
-      <c r="U154" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V154" t="s">
-        <v>143</v>
-      </c>
-      <c r="W154" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="155" spans="2:23">
-      <c r="B155" t="s">
-        <v>27</v>
-      </c>
-      <c r="C155" t="s">
-        <v>128</v>
-      </c>
-      <c r="D155" t="s">
-        <v>111</v>
-      </c>
-      <c r="E155">
-        <v>93000</v>
-      </c>
-      <c r="F155">
-        <v>0</v>
-      </c>
-      <c r="G155">
-        <v>104871.5887017239</v>
-      </c>
-      <c r="H155">
-        <v>0</v>
-      </c>
-      <c r="U155" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V155" t="s">
-        <v>145</v>
-      </c>
-      <c r="W155" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="156" spans="2:23">
-      <c r="B156" t="s">
-        <v>30</v>
-      </c>
-      <c r="C156" t="s">
-        <v>128</v>
-      </c>
-      <c r="D156" t="s">
-        <v>112</v>
-      </c>
-      <c r="E156">
-        <v>93000</v>
-      </c>
-      <c r="F156">
-        <v>0</v>
-      </c>
-      <c r="G156">
-        <v>104871.5887017239</v>
-      </c>
-      <c r="H156">
-        <v>0</v>
-      </c>
-      <c r="U156" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V156" t="s">
-        <v>148</v>
-      </c>
-      <c r="W156" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="157" spans="2:23">
-      <c r="B157" t="s">
-        <v>31</v>
-      </c>
-      <c r="C157" t="s">
-        <v>128</v>
-      </c>
-      <c r="D157" t="s">
-        <v>113</v>
-      </c>
-      <c r="E157">
-        <v>48000</v>
-      </c>
-      <c r="F157">
-        <v>0</v>
-      </c>
-      <c r="G157">
-        <v>54127.27158798654</v>
-      </c>
-      <c r="H157">
-        <v>0</v>
-      </c>
-      <c r="U157" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V157" t="s">
-        <v>149</v>
-      </c>
-      <c r="W157" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="158" spans="2:23">
-      <c r="B158" t="s">
-        <v>32</v>
-      </c>
-      <c r="C158" t="s">
-        <v>128</v>
-      </c>
-      <c r="D158" t="s">
-        <v>114</v>
-      </c>
-      <c r="E158">
-        <v>155000</v>
-      </c>
-      <c r="F158">
-        <v>0</v>
-      </c>
-      <c r="G158">
-        <v>174785.9811695399</v>
-      </c>
-      <c r="H158">
-        <v>0</v>
-      </c>
-      <c r="U158" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V158" t="s">
-        <v>150</v>
-      </c>
-      <c r="W158" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="159" spans="2:23">
-      <c r="B159" t="s">
-        <v>33</v>
-      </c>
-      <c r="C159" t="s">
-        <v>128</v>
-      </c>
-      <c r="D159" t="s">
-        <v>115</v>
-      </c>
-      <c r="E159">
-        <v>170000</v>
-      </c>
-      <c r="F159">
-        <v>0</v>
-      </c>
-      <c r="G159">
-        <v>191700.7535407857</v>
-      </c>
-      <c r="H159">
-        <v>0</v>
-      </c>
-      <c r="U159" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V159" t="s">
-        <v>151</v>
-      </c>
-      <c r="W159" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="160" spans="2:23">
-      <c r="B160" t="s">
-        <v>35</v>
-      </c>
-      <c r="C160" t="s">
-        <v>128</v>
-      </c>
-      <c r="D160" t="s">
-        <v>116</v>
-      </c>
-      <c r="E160">
-        <v>93000</v>
-      </c>
-      <c r="F160">
-        <v>0</v>
-      </c>
-      <c r="G160">
-        <v>104871.5887017239</v>
-      </c>
-      <c r="H160">
-        <v>0</v>
-      </c>
-      <c r="U160" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V160" t="s">
-        <v>153</v>
-      </c>
-      <c r="W160" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="161" spans="2:23">
-      <c r="B161" t="s">
-        <v>36</v>
-      </c>
-      <c r="C161" t="s">
-        <v>128</v>
-      </c>
-      <c r="D161" t="s">
-        <v>117</v>
-      </c>
-      <c r="E161">
-        <v>93000</v>
-      </c>
-      <c r="F161">
-        <v>0</v>
-      </c>
-      <c r="G161">
-        <v>104871.5887017239</v>
-      </c>
-      <c r="H161">
-        <v>0</v>
-      </c>
-      <c r="U161" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V161" t="s">
-        <v>154</v>
-      </c>
-      <c r="W161" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="162" spans="2:23">
-      <c r="B162" t="s">
-        <v>37</v>
-      </c>
-      <c r="C162" t="s">
-        <v>128</v>
-      </c>
-      <c r="D162" t="s">
-        <v>118</v>
-      </c>
-      <c r="E162">
-        <v>170000</v>
-      </c>
-      <c r="F162">
-        <v>0</v>
-      </c>
-      <c r="G162">
-        <v>191700.7535407857</v>
-      </c>
-      <c r="H162">
-        <v>0</v>
-      </c>
-      <c r="U162" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V162" t="s">
-        <v>155</v>
-      </c>
-      <c r="W162" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="163" spans="2:23">
-      <c r="B163" t="s">
-        <v>38</v>
-      </c>
-      <c r="C163" t="s">
-        <v>128</v>
-      </c>
-      <c r="D163" t="s">
-        <v>119</v>
-      </c>
-      <c r="E163">
-        <v>93000</v>
-      </c>
-      <c r="F163">
-        <v>0</v>
-      </c>
-      <c r="G163">
-        <v>104871.5887017239</v>
-      </c>
-      <c r="H163">
-        <v>0</v>
-      </c>
-      <c r="U163" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V163" t="s">
-        <v>156</v>
-      </c>
-      <c r="W163" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="164" spans="2:23">
-      <c r="B164" t="s">
-        <v>43</v>
-      </c>
-      <c r="C164" t="s">
-        <v>128</v>
-      </c>
-      <c r="D164" t="s">
-        <v>120</v>
-      </c>
-      <c r="E164">
-        <v>192996</v>
-      </c>
-      <c r="F164">
-        <v>0</v>
-      </c>
-      <c r="G164">
-        <v>217632.2272373969</v>
-      </c>
-      <c r="H164">
-        <v>0</v>
-      </c>
-      <c r="U164" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V164" t="s">
-        <v>157</v>
-      </c>
-      <c r="W164" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="165" spans="2:23">
-      <c r="B165" t="s">
-        <v>46</v>
-      </c>
-      <c r="C165" t="s">
-        <v>128</v>
-      </c>
-      <c r="D165" t="s">
-        <v>121</v>
-      </c>
-      <c r="E165">
-        <v>132614</v>
-      </c>
-      <c r="F165">
-        <v>0</v>
-      </c>
-      <c r="G165">
-        <v>149542.3748826926</v>
-      </c>
-      <c r="H165">
-        <v>0</v>
-      </c>
-      <c r="U165" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V165" t="s">
-        <v>46</v>
-      </c>
-      <c r="W165" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="166" spans="2:23">
-      <c r="B166" t="s">
-        <v>48</v>
-      </c>
-      <c r="C166" t="s">
-        <v>128</v>
-      </c>
-      <c r="D166" t="s">
-        <v>122</v>
-      </c>
-      <c r="E166">
-        <v>141000</v>
-      </c>
-      <c r="F166">
-        <v>0</v>
-      </c>
-      <c r="G166">
-        <v>158998.8602897105</v>
-      </c>
-      <c r="H166">
-        <v>0</v>
-      </c>
-      <c r="U166" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V166" t="s">
-        <v>160</v>
-      </c>
-      <c r="W166" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="167" spans="2:23">
-      <c r="B167" t="s">
-        <v>47</v>
-      </c>
-      <c r="C167" t="s">
-        <v>128</v>
-      </c>
-      <c r="D167" t="s">
-        <v>123</v>
-      </c>
-      <c r="E167">
-        <v>155000</v>
-      </c>
-      <c r="F167">
-        <v>0</v>
-      </c>
-      <c r="G167">
-        <v>174785.9811695399</v>
-      </c>
-      <c r="H167">
-        <v>0</v>
-      </c>
-      <c r="U167" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V167" t="s">
-        <v>47</v>
-      </c>
-      <c r="W167" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="168" spans="2:23">
-      <c r="B168" t="s">
-        <v>49</v>
-      </c>
-      <c r="C168" t="s">
-        <v>128</v>
-      </c>
-      <c r="D168" t="s">
-        <v>124</v>
-      </c>
-      <c r="E168">
-        <v>500000</v>
-      </c>
-      <c r="F168">
-        <v>0</v>
-      </c>
-      <c r="G168">
-        <v>563825.7457081932</v>
-      </c>
-      <c r="H168">
-        <v>0</v>
-      </c>
-      <c r="U168" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V168" t="s">
-        <v>39</v>
-      </c>
-      <c r="W168" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="169" spans="2:23">
-      <c r="B169" t="s">
-        <v>17</v>
-      </c>
-      <c r="C169" t="s">
-        <v>128</v>
-      </c>
-      <c r="D169" t="s">
-        <v>125</v>
-      </c>
-      <c r="E169">
-        <v>93000</v>
-      </c>
-      <c r="F169">
-        <v>0</v>
-      </c>
-      <c r="G169">
-        <v>104871.5887017239</v>
-      </c>
-      <c r="H169">
-        <v>0</v>
-      </c>
-      <c r="U169" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V169" t="s">
-        <v>135</v>
-      </c>
-      <c r="W169" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="170" spans="2:23">
-      <c r="B170" t="s">
-        <v>34</v>
-      </c>
-      <c r="C170" t="s">
-        <v>128</v>
-      </c>
-      <c r="D170" t="s">
-        <v>126</v>
-      </c>
-      <c r="E170">
-        <v>28000</v>
-      </c>
-      <c r="F170">
-        <v>0</v>
-      </c>
-      <c r="G170">
-        <v>31574.24175965882</v>
-      </c>
-      <c r="H170">
-        <v>0</v>
-      </c>
-      <c r="U170" t="s">
-        <v>1606</v>
-      </c>
-      <c r="V170" t="s">
-        <v>152</v>
-      </c>
-      <c r="W170" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="171" spans="2:23">
-      <c r="B171" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="172" spans="2:23">
-      <c r="B172" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="173" spans="2:23">
-      <c r="B173" t="s">
-        <v>1587</v>
-      </c>
-      <c r="E173">
-        <v>272445227.34</v>
-      </c>
-      <c r="F173">
-        <v>1935012.754443571</v>
-      </c>
-      <c r="G173">
-        <v>283277309.1477216</v>
-      </c>
-      <c r="I173">
-        <v>0</v>
-      </c>
-      <c r="J173">
-        <v>0</v>
-      </c>
-      <c r="K173">
-        <v>0</v>
-      </c>
-      <c r="L173">
-        <v>0</v>
-      </c>
-      <c r="M173">
-        <v>0</v>
-      </c>
-      <c r="N173">
-        <v>0</v>
-      </c>
-      <c r="O173">
-        <v>0</v>
-      </c>
-      <c r="P173">
-        <v>0</v>
-      </c>
-      <c r="Q173">
-        <v>0</v>
-      </c>
-      <c r="R173">
-        <v>0</v>
-      </c>
-      <c r="S173">
-        <v>0</v>
-      </c>
-      <c r="T173">
-        <v>0</v>
-      </c>
-      <c r="U173">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>